--- a/src/main/resources/Financial_Report.xlsx
+++ b/src/main/resources/Financial_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\target\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2B49D1-C05B-4721-96B6-B41414885665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4101F3-8F1A-466C-B3BC-519FD503014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="10" windowWidth="12520" windowHeight="10610" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1479,43 +1479,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,6 +1536,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1590,36 +1602,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1930,7 +1930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1959,69 +1959,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
     </row>
     <row r="3" spans="1:11" ht="11.5" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="131"/>
-      <c r="G4" s="132" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
+      <c r="G4" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="155"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="109" t="str">
         <f>Offering!E5</f>
         <v>'23 Budget</v>
@@ -2033,10 +2033,10 @@
         <f>Offering!G5</f>
         <v>'23 Actual</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="109" t="str">
         <f>Expenditure!E4</f>
         <v>'23 Budget</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I15" s="101">
         <f>Expenditure!$E$109</f>
-        <v>6681.2599999999802</v>
+        <v>7321.26</v>
       </c>
       <c r="J15" s="87">
         <f t="shared" si="0"/>
@@ -2430,7 +2430,7 @@
       <c r="H16" s="91"/>
       <c r="I16" s="103">
         <f>SUBTOTAL(9,I6:I15)</f>
-        <v>175405.25999999998</v>
+        <v>176045.26</v>
       </c>
       <c r="J16" s="88">
         <f t="shared" si="0"/>
@@ -2459,11 +2459,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="49"/>
@@ -2607,10 +2607,10 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="95">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>138400</v>
@@ -2642,11 +2642,11 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="144"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
       <c r="G23" s="56"/>
       <c r="H23" s="119" t="str">
         <f>Expenditure!B119</f>
@@ -2706,7 +2706,7 @@
         <v>7000</v>
       </c>
       <c r="D25" s="83">
-        <f t="shared" ref="D24:D28" si="3">E25/C25*100</f>
+        <f t="shared" ref="D25:D28" si="3">E25/C25*100</f>
         <v>0</v>
       </c>
       <c r="E25" s="98">
@@ -2799,10 +2799,10 @@
       <c r="K28" s="55"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="95">
         <f>SUBTOTAL(9,C24:C28)</f>
         <v>39700</v>
@@ -2822,11 +2822,11 @@
       <c r="K29" s="55"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="144"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
       <c r="G30" s="54"/>
       <c r="H30" s="84"/>
       <c r="I30" s="84"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C32" s="93">
         <f>Offering!$E$32</f>
-        <v>63305.25999999998</v>
+        <v>63945.25999999998</v>
       </c>
       <c r="D32" s="87"/>
       <c r="E32" s="94"/>
@@ -2894,13 +2894,13 @@
       <c r="K33" s="55"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="141"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="99">
         <f>SUBTOTAL(9,C6:C33)</f>
-        <v>241405.25999999998</v>
+        <v>242045.25999999998</v>
       </c>
       <c r="D34" s="68">
         <f>E34/C34*100</f>
@@ -2910,13 +2910,13 @@
         <f>SUBTOTAL(9,E6:E33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="150" t="s">
+      <c r="G34" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="151"/>
+      <c r="H34" s="141"/>
       <c r="I34" s="107">
         <f>SUBTOTAL(9,I6:I25)</f>
-        <v>241405.25999999998</v>
+        <v>242045.26</v>
       </c>
       <c r="J34" s="68">
         <f t="shared" ref="J34" si="4">K34/I34*100</f>
@@ -2928,22 +2928,27 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="135" t="s">
+      <c r="A36" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A29:B29"/>
@@ -2954,11 +2959,6 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2971,10 +2971,10 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2987,43 +2987,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="158" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -3031,10 +3031,10 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="111" t="s">
         <v>247</v>
       </c>
@@ -3092,13 +3092,13 @@
       <c r="B6" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="121">
         <v>100000</v>
       </c>
-      <c r="D6" s="169">
+      <c r="D6" s="121">
         <v>87725</v>
       </c>
-      <c r="E6" s="169">
+      <c r="E6" s="121">
         <v>95000</v>
       </c>
       <c r="F6" s="59">
@@ -3127,13 +3127,13 @@
       <c r="B7" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="169">
+      <c r="C7" s="121">
         <v>3000</v>
       </c>
-      <c r="D7" s="169">
-        <v>0</v>
-      </c>
-      <c r="E7" s="169">
+      <c r="D7" s="121">
+        <v>0</v>
+      </c>
+      <c r="E7" s="121">
         <v>3000</v>
       </c>
       <c r="F7" s="59">
@@ -3151,13 +3151,13 @@
       <c r="B8" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="169">
+      <c r="C8" s="121">
         <v>200</v>
       </c>
-      <c r="D8" s="169">
-        <v>0</v>
-      </c>
-      <c r="E8" s="169">
+      <c r="D8" s="121">
+        <v>0</v>
+      </c>
+      <c r="E8" s="121">
         <v>0</v>
       </c>
       <c r="F8" s="59"/>
@@ -3171,17 +3171,17 @@
       <c r="B9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="169">
+      <c r="C9" s="121">
         <v>6500</v>
       </c>
-      <c r="D9" s="169">
+      <c r="D9" s="121">
         <v>7785</v>
       </c>
-      <c r="E9" s="169">
+      <c r="E9" s="121">
         <v>8000</v>
       </c>
       <c r="F9" s="59">
-        <f t="shared" ref="F8:F20" si="1">G9/E9*100</f>
+        <f t="shared" ref="F9:F20" si="1">G9/E9*100</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
@@ -3204,13 +3204,13 @@
       <c r="B10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="169">
+      <c r="C10" s="121">
         <v>1000</v>
       </c>
-      <c r="D10" s="169">
+      <c r="D10" s="121">
         <v>2740</v>
       </c>
-      <c r="E10" s="169">
+      <c r="E10" s="121">
         <v>3000</v>
       </c>
       <c r="F10" s="59">
@@ -3229,13 +3229,13 @@
       <c r="B11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="169">
+      <c r="C11" s="121">
         <v>3500</v>
       </c>
-      <c r="D11" s="169">
+      <c r="D11" s="121">
         <v>2650</v>
       </c>
-      <c r="E11" s="169">
+      <c r="E11" s="121">
         <v>3000</v>
       </c>
       <c r="F11" s="59">
@@ -3257,13 +3257,13 @@
       <c r="B12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="169">
+      <c r="C12" s="121">
         <v>1500</v>
       </c>
-      <c r="D12" s="169">
+      <c r="D12" s="121">
         <v>1395</v>
       </c>
-      <c r="E12" s="169">
+      <c r="E12" s="121">
         <v>1500</v>
       </c>
       <c r="F12" s="59">
@@ -3285,13 +3285,13 @@
       <c r="B13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="169">
+      <c r="C13" s="121">
         <v>4500</v>
       </c>
-      <c r="D13" s="169">
+      <c r="D13" s="121">
         <v>2825</v>
       </c>
-      <c r="E13" s="169">
+      <c r="E13" s="121">
         <v>3000</v>
       </c>
       <c r="F13" s="59">
@@ -3310,13 +3310,13 @@
       <c r="B14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="169">
+      <c r="C14" s="121">
         <v>4000</v>
       </c>
-      <c r="D14" s="169">
+      <c r="D14" s="121">
         <v>3350</v>
       </c>
-      <c r="E14" s="169">
+      <c r="E14" s="121">
         <v>3500</v>
       </c>
       <c r="F14" s="59">
@@ -3334,13 +3334,13 @@
       <c r="B15" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="169">
+      <c r="C15" s="121">
         <v>6000</v>
       </c>
-      <c r="D15" s="169">
+      <c r="D15" s="121">
         <v>6185</v>
       </c>
-      <c r="E15" s="169">
+      <c r="E15" s="121">
         <v>6000</v>
       </c>
       <c r="F15" s="59">
@@ -3360,13 +3360,13 @@
       <c r="B16" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="169">
+      <c r="C16" s="121">
         <v>500</v>
       </c>
-      <c r="D16" s="169">
+      <c r="D16" s="121">
         <v>580</v>
       </c>
-      <c r="E16" s="169">
+      <c r="E16" s="121">
         <v>400</v>
       </c>
       <c r="F16" s="59">
@@ -3388,13 +3388,13 @@
       <c r="B17" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="169">
+      <c r="C17" s="121">
         <v>4500</v>
       </c>
-      <c r="D17" s="169">
+      <c r="D17" s="121">
         <v>2904.29</v>
       </c>
-      <c r="E17" s="169">
+      <c r="E17" s="121">
         <v>3000</v>
       </c>
       <c r="F17" s="59">
@@ -3416,13 +3416,13 @@
       <c r="B18" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="121">
         <v>2000</v>
       </c>
-      <c r="D18" s="169">
+      <c r="D18" s="121">
         <v>2308.9500000000003</v>
       </c>
-      <c r="E18" s="169">
+      <c r="E18" s="121">
         <v>2500</v>
       </c>
       <c r="F18" s="59">
@@ -3447,13 +3447,13 @@
       <c r="B19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="169">
+      <c r="C19" s="121">
         <v>6000</v>
       </c>
-      <c r="D19" s="169">
+      <c r="D19" s="121">
         <v>1380</v>
       </c>
-      <c r="E19" s="169">
+      <c r="E19" s="121">
         <v>5000</v>
       </c>
       <c r="F19" s="59">
@@ -3474,13 +3474,13 @@
       <c r="B20" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="169">
+      <c r="C20" s="121">
         <v>1000</v>
       </c>
-      <c r="D20" s="169">
+      <c r="D20" s="121">
         <v>3110</v>
       </c>
-      <c r="E20" s="169">
+      <c r="E20" s="121">
         <v>1500</v>
       </c>
       <c r="F20" s="59">
@@ -3502,13 +3502,13 @@
       <c r="B21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="169">
-        <v>0</v>
-      </c>
-      <c r="D21" s="169">
-        <v>0</v>
-      </c>
-      <c r="E21" s="169">
+      <c r="C21" s="121">
+        <v>0</v>
+      </c>
+      <c r="D21" s="121">
+        <v>0</v>
+      </c>
+      <c r="E21" s="121">
         <v>0</v>
       </c>
       <c r="F21" s="9"/>
@@ -3518,10 +3518,10 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="159" t="s">
+      <c r="A22" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="159"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="10">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>144200</v>
@@ -3592,38 +3592,38 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="160"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="170">
+      <c r="C24" s="122">
         <v>4000</v>
       </c>
-      <c r="D24" s="170">
+      <c r="D24" s="122">
         <v>3176.26</v>
       </c>
-      <c r="E24" s="170">
+      <c r="E24" s="122">
         <v>0</v>
       </c>
       <c r="F24" s="67"/>
@@ -3639,13 +3639,13 @@
       <c r="B25" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="170">
+      <c r="C25" s="122">
         <v>9000</v>
       </c>
-      <c r="D25" s="170">
+      <c r="D25" s="122">
         <v>9000</v>
       </c>
-      <c r="E25" s="170">
+      <c r="E25" s="122">
         <v>7000</v>
       </c>
       <c r="F25" s="67">
@@ -3663,13 +3663,13 @@
       <c r="B26" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="122">
         <v>21000</v>
       </c>
       <c r="D26" s="5">
         <v>21000</v>
       </c>
-      <c r="E26" s="170">
+      <c r="E26" s="122">
         <v>22000</v>
       </c>
       <c r="F26" s="67">
@@ -3686,13 +3686,13 @@
       <c r="B27" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="170">
+      <c r="C27" s="122">
         <v>5000</v>
       </c>
-      <c r="D27" s="170">
+      <c r="D27" s="122">
         <v>18800</v>
       </c>
-      <c r="E27" s="170">
+      <c r="E27" s="122">
         <v>9200</v>
       </c>
       <c r="F27" s="67">
@@ -3709,13 +3709,13 @@
       <c r="B28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="170">
+      <c r="C28" s="122">
         <v>1500</v>
       </c>
-      <c r="D28" s="170">
+      <c r="D28" s="122">
         <v>1400</v>
       </c>
-      <c r="E28" s="170">
+      <c r="E28" s="122">
         <v>1500</v>
       </c>
       <c r="F28" s="67">
@@ -3733,10 +3733,10 @@
       <c r="R28" s="74"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="159"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="10">
         <f>SUBTOTAL(9,C24:C28)</f>
         <v>40500</v>
@@ -3807,25 +3807,25 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="160"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="13" t="s">
@@ -3910,8 +3910,8 @@
         <v>57490.400000000001</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="169">
-        <v>63305.25999999998</v>
+      <c r="E32" s="121">
+        <v>63945.25999999998</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
@@ -3937,10 +3937,10 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="153"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="20">
         <f>SUBTOTAL(9,C6:C33)</f>
         <v>247190.39999999999</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E34" s="20">
         <f>SUBTOTAL(9,E6:E33)</f>
-        <v>241405.25999999998</v>
+        <v>242045.25999999998</v>
       </c>
       <c r="F34" s="61">
         <f>G34/E34*100</f>
@@ -4050,10 +4050,10 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4075,7 +4075,7 @@
       <c r="D1" s="167"/>
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
-      <c r="G1" s="155"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
@@ -4098,7 +4098,7 @@
       <c r="D2" s="166"/>
       <c r="E2" s="167"/>
       <c r="F2" s="167"/>
-      <c r="G2" s="155"/>
+      <c r="G2" s="159"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -4121,7 +4121,7 @@
       <c r="D3" s="166"/>
       <c r="E3" s="167"/>
       <c r="F3" s="167"/>
-      <c r="G3" s="155"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -4195,48 +4195,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="163"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="26" t="s">
@@ -4340,7 +4340,7 @@
         <v>20000</v>
       </c>
       <c r="F10" s="63">
-        <f t="shared" ref="F10:F16" si="0">G10/E10*100</f>
+        <f t="shared" ref="F10:F15" si="0">G10/E10*100</f>
         <v>0</v>
       </c>
       <c r="G10" s="28">
@@ -5141,25 +5141,25 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="163"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="152"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="156"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="33" t="s">
@@ -5193,13 +5193,13 @@
       <c r="B35" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="171">
+      <c r="C35" s="123">
         <v>1200</v>
       </c>
-      <c r="D35" s="171">
+      <c r="D35" s="123">
         <v>1107.79</v>
       </c>
-      <c r="E35" s="171">
+      <c r="E35" s="123">
         <v>1200</v>
       </c>
       <c r="F35" s="66">
@@ -5230,13 +5230,13 @@
       <c r="B36" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="171">
+      <c r="C36" s="123">
         <v>1000</v>
       </c>
-      <c r="D36" s="171">
+      <c r="D36" s="123">
         <v>14.25</v>
       </c>
-      <c r="E36" s="171">
+      <c r="E36" s="123">
         <v>1000</v>
       </c>
       <c r="F36" s="66">
@@ -5267,13 +5267,13 @@
       <c r="B37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="171">
+      <c r="C37" s="123">
         <v>2000</v>
       </c>
-      <c r="D37" s="171">
+      <c r="D37" s="123">
         <v>1369.2600000000002</v>
       </c>
-      <c r="E37" s="171">
+      <c r="E37" s="123">
         <v>1500</v>
       </c>
       <c r="F37" s="66">
@@ -5304,13 +5304,13 @@
       <c r="B38" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C38" s="171">
+      <c r="C38" s="123">
         <v>300</v>
       </c>
-      <c r="D38" s="171">
+      <c r="D38" s="123">
         <v>226</v>
       </c>
-      <c r="E38" s="171">
+      <c r="E38" s="123">
         <v>300</v>
       </c>
       <c r="F38" s="66">
@@ -5341,13 +5341,13 @@
       <c r="B39" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="171">
+      <c r="C39" s="123">
         <v>5000</v>
       </c>
-      <c r="D39" s="171">
+      <c r="D39" s="123">
         <v>5736</v>
       </c>
-      <c r="E39" s="171">
+      <c r="E39" s="123">
         <v>6000</v>
       </c>
       <c r="F39" s="66">
@@ -5378,13 +5378,13 @@
       <c r="B40" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="171">
+      <c r="C40" s="123">
         <v>300</v>
       </c>
-      <c r="D40" s="171">
-        <v>0</v>
-      </c>
-      <c r="E40" s="171">
+      <c r="D40" s="123">
+        <v>0</v>
+      </c>
+      <c r="E40" s="123">
         <v>0</v>
       </c>
       <c r="F40" s="66"/>
@@ -5412,13 +5412,13 @@
       <c r="B41" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="171">
+      <c r="C41" s="123">
         <v>300</v>
       </c>
-      <c r="D41" s="171">
-        <v>0</v>
-      </c>
-      <c r="E41" s="171">
+      <c r="D41" s="123">
+        <v>0</v>
+      </c>
+      <c r="E41" s="123">
         <v>0</v>
       </c>
       <c r="F41" s="66"/>
@@ -5446,13 +5446,13 @@
       <c r="B42" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="171">
+      <c r="C42" s="123">
         <v>400</v>
       </c>
-      <c r="D42" s="171">
+      <c r="D42" s="123">
         <v>363.86</v>
       </c>
-      <c r="E42" s="171">
+      <c r="E42" s="123">
         <v>400</v>
       </c>
       <c r="F42" s="66">
@@ -5483,13 +5483,13 @@
       <c r="B43" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="171">
+      <c r="C43" s="123">
         <v>38400</v>
       </c>
-      <c r="D43" s="171">
+      <c r="D43" s="123">
         <v>38400</v>
       </c>
-      <c r="E43" s="171">
+      <c r="E43" s="123">
         <v>39360</v>
       </c>
       <c r="F43" s="66">
@@ -5520,13 +5520,13 @@
       <c r="B44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="171">
+      <c r="C44" s="123">
         <v>1200</v>
       </c>
-      <c r="D44" s="171">
+      <c r="D44" s="123">
         <v>1367.5</v>
       </c>
-      <c r="E44" s="171">
+      <c r="E44" s="123">
         <v>1500</v>
       </c>
       <c r="F44" s="66">
@@ -5557,13 +5557,13 @@
       <c r="B45" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="171">
+      <c r="C45" s="123">
         <v>500</v>
       </c>
-      <c r="D45" s="171">
+      <c r="D45" s="123">
         <v>398.74000000000007</v>
       </c>
-      <c r="E45" s="171">
+      <c r="E45" s="123">
         <v>500</v>
       </c>
       <c r="F45" s="66">
@@ -5594,13 +5594,13 @@
       <c r="B46" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="171">
+      <c r="C46" s="123">
         <v>200</v>
       </c>
-      <c r="D46" s="171">
+      <c r="D46" s="123">
         <v>100.36999999999999</v>
       </c>
-      <c r="E46" s="171">
+      <c r="E46" s="123">
         <v>200</v>
       </c>
       <c r="F46" s="66">
@@ -5701,25 +5701,25 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.5">
-      <c r="A48" s="163"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="152"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152"/>
-      <c r="S48" s="152"/>
+      <c r="A48" s="168"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="156"/>
+      <c r="Q48" s="156"/>
+      <c r="R48" s="156"/>
+      <c r="S48" s="156"/>
     </row>
     <row r="49" spans="1:19" ht="14.5">
       <c r="A49" s="26" t="s">
@@ -6079,25 +6079,25 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="163"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="152"/>
-      <c r="Q58" s="152"/>
-      <c r="R58" s="152"/>
-      <c r="S58" s="152"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
+      <c r="S58" s="156"/>
     </row>
     <row r="59" spans="1:19" ht="14.5">
       <c r="A59" s="33" t="s">
@@ -6131,13 +6131,13 @@
       <c r="B60" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="171">
+      <c r="C60" s="123">
         <v>300</v>
       </c>
-      <c r="D60" s="171">
-        <v>0</v>
-      </c>
-      <c r="E60" s="171">
+      <c r="D60" s="123">
+        <v>0</v>
+      </c>
+      <c r="E60" s="123">
         <v>300</v>
       </c>
       <c r="F60" s="66">
@@ -6168,13 +6168,13 @@
       <c r="B61" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="171">
+      <c r="C61" s="123">
         <v>200</v>
       </c>
-      <c r="D61" s="171">
+      <c r="D61" s="123">
         <v>55.79</v>
       </c>
-      <c r="E61" s="171">
+      <c r="E61" s="123">
         <v>200</v>
       </c>
       <c r="F61" s="66">
@@ -6205,13 +6205,13 @@
       <c r="B62" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="171">
+      <c r="C62" s="123">
         <v>300</v>
       </c>
-      <c r="D62" s="171">
+      <c r="D62" s="123">
         <v>290</v>
       </c>
-      <c r="E62" s="171">
+      <c r="E62" s="123">
         <v>300</v>
       </c>
       <c r="F62" s="66">
@@ -6242,13 +6242,13 @@
       <c r="B63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="171">
+      <c r="C63" s="123">
         <v>1300</v>
       </c>
-      <c r="D63" s="171">
+      <c r="D63" s="123">
         <v>318.95999999999998</v>
       </c>
-      <c r="E63" s="171">
+      <c r="E63" s="123">
         <v>1300</v>
       </c>
       <c r="F63" s="66">
@@ -6349,25 +6349,25 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="14.5">
-      <c r="A65" s="163"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="162"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="152"/>
-      <c r="L65" s="152"/>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="152"/>
-      <c r="Q65" s="152"/>
-      <c r="R65" s="152"/>
-      <c r="S65" s="152"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="156"/>
+      <c r="Q65" s="156"/>
+      <c r="R65" s="156"/>
+      <c r="S65" s="156"/>
     </row>
     <row r="66" spans="1:19" ht="14.5">
       <c r="A66" s="26" t="s">
@@ -6616,25 +6616,25 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="163"/>
-      <c r="B72" s="152"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="152"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="162"/>
-      <c r="I72" s="152"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="152"/>
-      <c r="L72" s="152"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="152"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="152"/>
-      <c r="Q72" s="152"/>
-      <c r="R72" s="152"/>
-      <c r="S72" s="152"/>
+      <c r="A72" s="168"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="156"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
+      <c r="L72" s="156"/>
+      <c r="M72" s="156"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="156"/>
+      <c r="P72" s="156"/>
+      <c r="Q72" s="156"/>
+      <c r="R72" s="156"/>
+      <c r="S72" s="156"/>
     </row>
     <row r="73" spans="1:19" ht="14.5">
       <c r="A73" s="33" t="s">
@@ -6917,25 +6917,25 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="14.5">
-      <c r="A80" s="163"/>
-      <c r="B80" s="161"/>
-      <c r="C80" s="161"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="161"/>
-      <c r="G80" s="161"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="152"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="152"/>
-      <c r="L80" s="152"/>
-      <c r="M80" s="152"/>
-      <c r="N80" s="152"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="152"/>
-      <c r="Q80" s="152"/>
-      <c r="R80" s="152"/>
-      <c r="S80" s="152"/>
+      <c r="A80" s="168"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="171"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
+      <c r="L80" s="156"/>
+      <c r="M80" s="156"/>
+      <c r="N80" s="156"/>
+      <c r="O80" s="156"/>
+      <c r="P80" s="156"/>
+      <c r="Q80" s="156"/>
+      <c r="R80" s="156"/>
+      <c r="S80" s="156"/>
     </row>
     <row r="81" spans="1:19" ht="14.5">
       <c r="A81" s="26" t="s">
@@ -6978,7 +6978,7 @@
       <c r="E82" s="75">
         <v>1500</v>
       </c>
-      <c r="F82" s="172">
+      <c r="F82" s="124">
         <f t="shared" ref="F82" si="25">G82/E82*100</f>
         <v>0</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="E83" s="75">
         <v>0</v>
       </c>
-      <c r="F83" s="172"/>
+      <c r="F83" s="124"/>
       <c r="G83" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7083,8 +7083,8 @@
       <c r="E85" s="75">
         <v>4000</v>
       </c>
-      <c r="F85" s="172">
-        <f t="shared" ref="F85:F92" si="27">G85/E85*100</f>
+      <c r="F85" s="124">
+        <f t="shared" ref="F85:F89" si="27">G85/E85*100</f>
         <v>0</v>
       </c>
       <c r="G85" s="28">
@@ -7120,7 +7120,7 @@
       <c r="E86" s="75">
         <v>1000</v>
       </c>
-      <c r="F86" s="172">
+      <c r="F86" s="124">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="E87" s="75">
         <v>200</v>
       </c>
-      <c r="F87" s="172">
+      <c r="F87" s="124">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="E88" s="75">
         <v>800</v>
       </c>
-      <c r="F88" s="172">
+      <c r="F88" s="124">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="E89" s="75">
         <v>300</v>
       </c>
-      <c r="F89" s="172">
+      <c r="F89" s="124">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="E90" s="75">
         <v>0</v>
       </c>
-      <c r="F90" s="172"/>
+      <c r="F90" s="124"/>
       <c r="G90" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7302,7 +7302,7 @@
       <c r="E91" s="75">
         <v>0</v>
       </c>
-      <c r="F91" s="172"/>
+      <c r="F91" s="124"/>
       <c r="G91" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7336,7 +7336,7 @@
       <c r="E92" s="75">
         <v>0</v>
       </c>
-      <c r="F92" s="172"/>
+      <c r="F92" s="124"/>
       <c r="G92" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>7800</v>
       </c>
       <c r="F93" s="63">
-        <f t="shared" ref="F85:F93" si="29">G93/E93*100</f>
+        <f t="shared" ref="F93" si="29">G93/E93*100</f>
         <v>0</v>
       </c>
       <c r="G93" s="27">
@@ -7431,25 +7431,25 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="163"/>
-      <c r="B94" s="161"/>
-      <c r="C94" s="161"/>
-      <c r="D94" s="161"/>
-      <c r="E94" s="161"/>
-      <c r="F94" s="161"/>
-      <c r="G94" s="161"/>
-      <c r="H94" s="162"/>
-      <c r="I94" s="152"/>
-      <c r="J94" s="152"/>
-      <c r="K94" s="152"/>
-      <c r="L94" s="152"/>
-      <c r="M94" s="152"/>
-      <c r="N94" s="152"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="152"/>
-      <c r="Q94" s="152"/>
-      <c r="R94" s="152"/>
-      <c r="S94" s="152"/>
+      <c r="A94" s="168"/>
+      <c r="B94" s="165"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="165"/>
+      <c r="F94" s="165"/>
+      <c r="G94" s="165"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="156"/>
+      <c r="K94" s="156"/>
+      <c r="L94" s="156"/>
+      <c r="M94" s="156"/>
+      <c r="N94" s="156"/>
+      <c r="O94" s="156"/>
+      <c r="P94" s="156"/>
+      <c r="Q94" s="156"/>
+      <c r="R94" s="156"/>
+      <c r="S94" s="156"/>
     </row>
     <row r="95" spans="1:19" ht="14.5">
       <c r="A95" s="33" t="s">
@@ -7483,13 +7483,13 @@
       <c r="B96" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="171">
+      <c r="C96" s="123">
         <v>600</v>
       </c>
       <c r="D96" s="34">
         <v>458.54999999999995</v>
       </c>
-      <c r="E96" s="171">
+      <c r="E96" s="123">
         <v>600</v>
       </c>
       <c r="F96" s="66">
@@ -7520,13 +7520,13 @@
       <c r="B97" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="171">
+      <c r="C97" s="123">
         <v>1500</v>
       </c>
       <c r="D97" s="34">
         <v>1970</v>
       </c>
-      <c r="E97" s="171">
+      <c r="E97" s="123">
         <v>3000</v>
       </c>
       <c r="F97" s="66">
@@ -7557,13 +7557,13 @@
       <c r="B98" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="171">
+      <c r="C98" s="123">
         <v>6000</v>
       </c>
       <c r="D98" s="34">
         <v>3415.2200000000003</v>
       </c>
-      <c r="E98" s="171">
+      <c r="E98" s="123">
         <v>5000</v>
       </c>
       <c r="F98" s="66">
@@ -7594,13 +7594,13 @@
       <c r="B99" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="171">
+      <c r="C99" s="123">
         <v>200</v>
       </c>
       <c r="D99" s="34">
         <v>0</v>
       </c>
-      <c r="E99" s="171">
+      <c r="E99" s="123">
         <v>200</v>
       </c>
       <c r="F99" s="66">
@@ -7631,13 +7631,13 @@
       <c r="B100" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="171">
+      <c r="C100" s="123">
         <v>200</v>
       </c>
       <c r="D100" s="34">
         <v>0</v>
       </c>
-      <c r="E100" s="171">
+      <c r="E100" s="123">
         <v>200</v>
       </c>
       <c r="F100" s="66">
@@ -7738,25 +7738,25 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.5">
-      <c r="A102" s="163"/>
-      <c r="B102" s="161"/>
-      <c r="C102" s="161"/>
-      <c r="D102" s="161"/>
-      <c r="E102" s="161"/>
-      <c r="F102" s="161"/>
-      <c r="G102" s="161"/>
-      <c r="H102" s="162"/>
-      <c r="I102" s="152"/>
-      <c r="J102" s="152"/>
-      <c r="K102" s="152"/>
-      <c r="L102" s="152"/>
-      <c r="M102" s="152"/>
-      <c r="N102" s="152"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="152"/>
-      <c r="Q102" s="152"/>
-      <c r="R102" s="152"/>
-      <c r="S102" s="152"/>
+      <c r="A102" s="168"/>
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="170"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="156"/>
+      <c r="K102" s="156"/>
+      <c r="L102" s="156"/>
+      <c r="M102" s="156"/>
+      <c r="N102" s="156"/>
+      <c r="O102" s="156"/>
+      <c r="P102" s="156"/>
+      <c r="Q102" s="156"/>
+      <c r="R102" s="156"/>
+      <c r="S102" s="156"/>
     </row>
     <row r="103" spans="1:19" ht="14.5">
       <c r="A103" s="26" t="s">
@@ -7897,25 +7897,25 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="163"/>
-      <c r="B106" s="161"/>
-      <c r="C106" s="161"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
-      <c r="F106" s="161"/>
-      <c r="G106" s="161"/>
-      <c r="H106" s="162"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="152"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="152"/>
-      <c r="Q106" s="152"/>
-      <c r="R106" s="152"/>
-      <c r="S106" s="152"/>
+      <c r="A106" s="168"/>
+      <c r="B106" s="165"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="165"/>
+      <c r="G106" s="165"/>
+      <c r="H106" s="170"/>
+      <c r="I106" s="156"/>
+      <c r="J106" s="156"/>
+      <c r="K106" s="156"/>
+      <c r="L106" s="156"/>
+      <c r="M106" s="156"/>
+      <c r="N106" s="156"/>
+      <c r="O106" s="156"/>
+      <c r="P106" s="156"/>
+      <c r="Q106" s="156"/>
+      <c r="R106" s="156"/>
+      <c r="S106" s="156"/>
     </row>
     <row r="107" spans="1:19" ht="14.5">
       <c r="A107" s="33" t="s">
@@ -7956,7 +7956,7 @@
         <v>678</v>
       </c>
       <c r="E108" s="42">
-        <v>6681.2599999999802</v>
+        <v>7321.26</v>
       </c>
       <c r="F108" s="66">
         <f t="shared" ref="F108:F109" si="36">G108/E108*100</f>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="E109" s="35">
         <f t="shared" si="38"/>
-        <v>6681.2599999999802</v>
+        <v>7321.26</v>
       </c>
       <c r="F109" s="66">
         <f t="shared" si="36"/>
@@ -8056,13 +8056,13 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="14.5">
-      <c r="A110" s="163"/>
-      <c r="B110" s="161"/>
-      <c r="C110" s="161"/>
-      <c r="D110" s="161"/>
-      <c r="E110" s="161"/>
-      <c r="F110" s="161"/>
-      <c r="G110" s="161"/>
+      <c r="A110" s="168"/>
+      <c r="B110" s="165"/>
+      <c r="C110" s="165"/>
+      <c r="D110" s="165"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="165"/>
+      <c r="G110" s="165"/>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
       <c r="J110" s="47"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="E111" s="44">
         <f>SUBTOTAL(9,E9:E109)</f>
-        <v>175405.25999999998</v>
+        <v>176045.26</v>
       </c>
       <c r="F111" s="65">
         <f>G111/E111*100</f>
@@ -8151,36 +8151,36 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="163"/>
-      <c r="B112" s="161"/>
-      <c r="C112" s="161"/>
-      <c r="D112" s="161"/>
-      <c r="E112" s="161"/>
-      <c r="F112" s="161"/>
-      <c r="G112" s="161"/>
-      <c r="H112" s="162"/>
-      <c r="I112" s="152"/>
-      <c r="J112" s="152"/>
-      <c r="K112" s="152"/>
-      <c r="L112" s="152"/>
-      <c r="M112" s="152"/>
-      <c r="N112" s="152"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="152"/>
-      <c r="Q112" s="152"/>
-      <c r="R112" s="152"/>
-      <c r="S112" s="152"/>
+      <c r="A112" s="168"/>
+      <c r="B112" s="165"/>
+      <c r="C112" s="165"/>
+      <c r="D112" s="165"/>
+      <c r="E112" s="165"/>
+      <c r="F112" s="165"/>
+      <c r="G112" s="165"/>
+      <c r="H112" s="170"/>
+      <c r="I112" s="156"/>
+      <c r="J112" s="156"/>
+      <c r="K112" s="156"/>
+      <c r="L112" s="156"/>
+      <c r="M112" s="156"/>
+      <c r="N112" s="156"/>
+      <c r="O112" s="156"/>
+      <c r="P112" s="156"/>
+      <c r="Q112" s="156"/>
+      <c r="R112" s="156"/>
+      <c r="S112" s="156"/>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="163" t="s">
+      <c r="A113" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="164"/>
-      <c r="C113" s="164"/>
-      <c r="D113" s="164"/>
-      <c r="E113" s="164"/>
-      <c r="F113" s="164"/>
-      <c r="G113" s="164"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="169"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="169"/>
+      <c r="F113" s="169"/>
+      <c r="G113" s="169"/>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
       <c r="J113" s="47"/>
@@ -8517,25 +8517,25 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="163"/>
-      <c r="B122" s="161"/>
-      <c r="C122" s="161"/>
-      <c r="D122" s="161"/>
-      <c r="E122" s="161"/>
-      <c r="F122" s="161"/>
-      <c r="G122" s="161"/>
-      <c r="H122" s="162"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="152"/>
-      <c r="L122" s="152"/>
-      <c r="M122" s="152"/>
-      <c r="N122" s="152"/>
-      <c r="O122" s="152"/>
-      <c r="P122" s="152"/>
-      <c r="Q122" s="152"/>
-      <c r="R122" s="152"/>
-      <c r="S122" s="152"/>
+      <c r="A122" s="168"/>
+      <c r="B122" s="165"/>
+      <c r="C122" s="165"/>
+      <c r="D122" s="165"/>
+      <c r="E122" s="165"/>
+      <c r="F122" s="165"/>
+      <c r="G122" s="165"/>
+      <c r="H122" s="170"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="156"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="156"/>
+      <c r="N122" s="156"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="156"/>
+      <c r="Q122" s="156"/>
+      <c r="R122" s="156"/>
+      <c r="S122" s="156"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="43"/>
@@ -8612,25 +8612,25 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="163"/>
-      <c r="B124" s="161"/>
-      <c r="C124" s="161"/>
-      <c r="D124" s="161"/>
-      <c r="E124" s="161"/>
-      <c r="F124" s="161"/>
-      <c r="G124" s="161"/>
-      <c r="H124" s="162"/>
-      <c r="I124" s="152"/>
-      <c r="J124" s="152"/>
-      <c r="K124" s="152"/>
-      <c r="L124" s="152"/>
-      <c r="M124" s="152"/>
-      <c r="N124" s="152"/>
-      <c r="O124" s="152"/>
-      <c r="P124" s="152"/>
-      <c r="Q124" s="152"/>
-      <c r="R124" s="152"/>
-      <c r="S124" s="152"/>
+      <c r="A124" s="168"/>
+      <c r="B124" s="165"/>
+      <c r="C124" s="165"/>
+      <c r="D124" s="165"/>
+      <c r="E124" s="165"/>
+      <c r="F124" s="165"/>
+      <c r="G124" s="165"/>
+      <c r="H124" s="170"/>
+      <c r="I124" s="156"/>
+      <c r="J124" s="156"/>
+      <c r="K124" s="156"/>
+      <c r="L124" s="156"/>
+      <c r="M124" s="156"/>
+      <c r="N124" s="156"/>
+      <c r="O124" s="156"/>
+      <c r="P124" s="156"/>
+      <c r="Q124" s="156"/>
+      <c r="R124" s="156"/>
+      <c r="S124" s="156"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="45"/>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E125" s="46">
         <f>SUBTOTAL(9,E9:E123)</f>
-        <v>241405.25999999998</v>
+        <v>242045.26</v>
       </c>
       <c r="F125" s="64">
         <f>G125/E125*100</f>
@@ -8823,29 +8823,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="H58:S58"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:S94"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="A80:G80"/>
     <mergeCell ref="H106:S106"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8856,6 +8833,29 @@
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:S94"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H58:S58"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8878,26 +8878,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5">
-      <c r="A1" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="A1" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
     </row>
     <row r="2" spans="1:4" ht="18.5">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="172" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -9043,7 +9043,7 @@
       <c r="C18" s="69"/>
       <c r="D18" s="69">
         <f>Summary!$C$32</f>
-        <v>63305.25999999998</v>
+        <v>63945.25999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9068,7 +9068,7 @@
       <c r="C22" s="69"/>
       <c r="D22" s="71">
         <f>D15+D18+D19</f>
-        <v>63305.25999999998</v>
+        <v>63945.25999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickTop="1">

--- a/src/main/resources/Financial_Report.xlsx
+++ b/src/main/resources/Financial_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4101F3-8F1A-466C-B3BC-519FD503014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BC755-8F32-42D2-BA70-599AEF986FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -794,9 +794,6 @@
     <t>교인주소록</t>
   </si>
   <si>
-    <t>New Horizons for Seniors Program</t>
-  </si>
-  <si>
     <t>05-7515-022</t>
   </si>
   <si>
@@ -834,6 +831,9 @@
   </si>
   <si>
     <t>'23 Actual</t>
+  </si>
+  <si>
+    <t>Ont Senior Community Grant</t>
   </si>
 </sst>
 </file>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3665FC8-9630-434E-9040-903A45656577}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.5">
       <c r="A2" s="142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" s="91"/>
       <c r="I16" s="103">
@@ -2591,7 +2591,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="120" t="str">
         <f>Expenditure!B117</f>
-        <v>New Horizons for Seniors Program</v>
+        <v>Ont Senior Community Grant</v>
       </c>
       <c r="I21" s="105">
         <f>Expenditure!$E$117</f>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" s="92"/>
       <c r="I25" s="103">
@@ -2734,7 +2734,7 @@
       <c r="A26" s="50"/>
       <c r="B26" s="78" t="str">
         <f>Offering!B26</f>
-        <v>New Horizons for Seniors Program</v>
+        <v>Ont Senior Community Grant</v>
       </c>
       <c r="C26" s="97">
         <f>Offering!$E$26</f>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="129"/>
       <c r="C29" s="95">
@@ -2895,7 +2895,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="131"/>
       <c r="C34" s="99">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34" s="141"/>
       <c r="I34" s="107">
@@ -2970,11 +2970,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CF550-27FC-43F1-88DC-1E797AD2F4C1}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.5">
       <c r="A2" s="158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="159"/>
       <c r="C2" s="159"/>
@@ -3036,19 +3036,19 @@
       </c>
       <c r="B5" s="162"/>
       <c r="C5" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>248</v>
-      </c>
       <c r="E5" s="113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>174</v>
@@ -3661,7 +3661,7 @@
     <row r="26" spans="1:19">
       <c r="A26" s="12"/>
       <c r="B26" s="78" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C26" s="122">
         <v>21000</v>
@@ -3684,7 +3684,7 @@
     <row r="27" spans="1:19">
       <c r="A27" s="85"/>
       <c r="B27" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="122">
         <v>5000</v>
@@ -4050,10 +4050,10 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4143,19 +4143,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116" t="s">
-        <v>248</v>
-      </c>
       <c r="E4" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>174</v>
@@ -8310,7 +8310,7 @@
         <v>160</v>
       </c>
       <c r="B117" s="118" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C117" s="75">
         <v>21000</v>
@@ -8341,10 +8341,10 @@
     </row>
     <row r="118" spans="1:19" s="76" customFormat="1" ht="14.5">
       <c r="A118" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="118" t="s">
         <v>240</v>
-      </c>
-      <c r="B118" s="118" t="s">
-        <v>241</v>
       </c>
       <c r="C118" s="75">
         <v>5000</v>
@@ -8938,7 +8938,7 @@
     <row r="7" spans="1:4">
       <c r="B7" t="str">
         <f>Summary!$B$26</f>
-        <v>New Horizons for Seniors Program</v>
+        <v>Ont Senior Community Grant</v>
       </c>
       <c r="C7" s="69">
         <f>Summary!$E$26</f>

--- a/src/main/resources/Financial_Report.xlsx
+++ b/src/main/resources/Financial_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BC755-8F32-42D2-BA70-599AEF986FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC071D4-2D1D-4D1E-8562-3A5108429ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Cashflow" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="254">
   <si>
     <t>Alpha Korean United Church</t>
   </si>
@@ -72,9 +72,6 @@
     <t>01-5111-003</t>
   </si>
   <si>
-    <t>차량수당</t>
-  </si>
-  <si>
     <t>01-5111-004</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>01-5311-003</t>
   </si>
   <si>
-    <t>지휘반주자</t>
-  </si>
-  <si>
     <t>01-5411-001</t>
   </si>
   <si>
@@ -231,15 +225,9 @@
     <t>01-5712-002</t>
   </si>
   <si>
-    <t>비품설치및 수리비</t>
-  </si>
-  <si>
     <t>01-5712-003</t>
   </si>
   <si>
-    <t xml:space="preserve">은행 서비스비 </t>
-  </si>
-  <si>
     <t>3. 예배</t>
   </si>
   <si>
@@ -549,9 +537,6 @@
     <t>05-7518-022</t>
   </si>
   <si>
-    <t>Water well &amp; Eugene Bell Canada Foundation</t>
-  </si>
-  <si>
     <t>01-5319-021</t>
   </si>
   <si>
@@ -693,22 +678,13 @@
     <t>Korean Language Grant</t>
   </si>
   <si>
-    <t>헌금 / OFFERING REPORT</t>
-  </si>
-  <si>
     <t>Offering</t>
   </si>
   <si>
-    <t>지출 / EXPENDITURE REPORT</t>
-  </si>
-  <si>
     <t>Expenditure</t>
   </si>
   <si>
     <t>General Expenses</t>
-  </si>
-  <si>
-    <t>Program Support</t>
   </si>
   <si>
     <t>M &amp; S</t>
@@ -785,9 +761,6 @@
     <t>Cachflow Reconciliation</t>
   </si>
   <si>
-    <t>포토카피어 관리비(토너,용지)</t>
-  </si>
-  <si>
     <t>사업보고서</t>
   </si>
   <si>
@@ -815,25 +788,55 @@
     <t>Expenditure Total</t>
   </si>
   <si>
-    <t>'22 Budget</t>
-  </si>
-  <si>
-    <t>'22 Actual</t>
+    <t>'23 Budget</t>
+  </si>
+  <si>
+    <t>'23 Actual</t>
+  </si>
+  <si>
+    <t>Ont Senior Community Grant</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>'24 Budget</t>
+  </si>
+  <si>
+    <t>'24 Actual</t>
+  </si>
+  <si>
+    <t>차량수당/전화</t>
+  </si>
+  <si>
+    <t>지휘 &amp; 반주자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">은행/회계사 서비스비 </t>
+  </si>
+  <si>
+    <t>KCPCAC &amp; Eugene Bell Canada Foundation</t>
   </si>
   <si>
     <t>재정현황 / FINANCIAL REPORT</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>'23 Budget</t>
-  </si>
-  <si>
-    <t>'23 Actual</t>
-  </si>
-  <si>
-    <t>Ont Senior Community Grant</t>
+    <t>Report period:</t>
+  </si>
+  <si>
+    <t>헌금 / OFFERING REPORT</t>
+  </si>
+  <si>
+    <t>지출 / EXPENDITURE REPORT</t>
+  </si>
+  <si>
+    <t>복사기 관리비(토너,용지)</t>
+  </si>
+  <si>
+    <t>비품설치 및 수리비</t>
+  </si>
+  <si>
+    <t>소회활동</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="167" formatCode="#,###,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1010,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1159,13 +1169,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="11" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="11" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,22 +1357,13 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1383,9 +1392,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1394,9 +1400,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,8 +1491,51 @@
     <xf numFmtId="4" fontId="11" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,44 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1602,31 +1610,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{16EC6241-B157-4B0E-BAF8-2BE6ED9A1A56}"/>
+    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{C5CA5861-8FAA-44D2-A353-1788ED121334}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{3C77608F-2072-4B28-AABD-95F1CD5F7654}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E7CA5AED-A838-4CFD-81F3-E5D7C3D3E2E5}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{157F1087-5C87-47CB-A1C9-7D8699C72D9A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D0C960F4-3A45-4289-BF58-35B4ACBF42F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1938,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3665FC8-9630-434E-9040-903A45656577}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1950,7 +1962,7 @@
     <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="3" width="9.453125" customWidth="1"/>
     <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="80" customWidth="1"/>
     <col min="6" max="7" width="1.6328125" customWidth="1"/>
     <col min="8" max="8" width="28.6328125" customWidth="1"/>
     <col min="9" max="9" width="9.453125" customWidth="1"/>
@@ -1959,1006 +1971,1051 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+    </row>
+    <row r="3" spans="1:11" ht="11.5" customHeight="1">
+      <c r="A3" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-    </row>
-    <row r="3" spans="1:11" ht="11.5" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="149" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
-      <c r="G4" s="153" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="155"/>
+      <c r="A4" s="132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+      <c r="G4" s="136" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="109" t="str">
+      <c r="A5" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="147"/>
+      <c r="C5" s="104" t="str">
         <f>Offering!E5</f>
-        <v>'23 Budget</v>
+        <v>'24 Budget</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="110" t="str">
+      <c r="E5" s="105" t="str">
         <f>Offering!G5</f>
-        <v>'23 Actual</v>
-      </c>
-      <c r="G5" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="109" t="str">
+        <v>'24 Actual</v>
+      </c>
+      <c r="G5" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="141"/>
+      <c r="I5" s="104" t="str">
         <f>Expenditure!E4</f>
-        <v>'23 Budget</v>
+        <v>'24 Budget</v>
       </c>
       <c r="J5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="110" t="str">
+      <c r="K5" s="105" t="str">
         <f>Expenditure!G4</f>
-        <v>'23 Actual</v>
+        <v>'24 Actual</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="49"/>
-      <c r="B6" s="86" t="str">
+      <c r="B6" s="82" t="str">
         <f>Offering!B6</f>
         <v>Regular Weekly Offering</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="88">
         <f>Offering!$E$6</f>
-        <v>95000</v>
-      </c>
-      <c r="D6" s="87">
-        <f>E6/C6*100</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="94">
+        <v>86000</v>
+      </c>
+      <c r="D6" s="59">
+        <f t="shared" ref="D6:D21" si="0">IF(C6=0, 0, E6/C6*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="89">
         <f>Offering!$G$6</f>
         <v>0</v>
       </c>
       <c r="G6" s="52"/>
-      <c r="H6" s="90" t="str">
+      <c r="H6" s="85" t="str">
         <f>Expenditure!B32</f>
         <v>Ministerial Staff Salaries &amp; Benefits</v>
       </c>
-      <c r="I6" s="101">
+      <c r="I6" s="96">
         <f>Expenditure!$E$32</f>
-        <v>92564</v>
-      </c>
-      <c r="J6" s="87">
-        <f t="shared" ref="J6:J16" si="0">K6/I6*100</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="102">
+        <v>94700</v>
+      </c>
+      <c r="J6" s="59">
+        <f t="shared" ref="J6:J15" si="1">IF(I6=0, 0, K6/I6*100)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="97">
         <f>Expenditure!$G$32</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="49"/>
-      <c r="B7" s="86" t="str">
+      <c r="B7" s="82" t="str">
         <f>Offering!B7</f>
         <v>Mission and Service (M &amp; S)</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="88">
         <f>Offering!$E$7</f>
-        <v>3000</v>
-      </c>
-      <c r="D7" s="87">
-        <f t="shared" ref="D7:D20" si="1">E7/C7*100</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="94">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="89">
         <f>Offering!$G$7</f>
         <v>0</v>
       </c>
       <c r="G7" s="52"/>
-      <c r="H7" s="90" t="str">
+      <c r="H7" s="85" t="str">
         <f>Expenditure!B47</f>
         <v>Adminstration</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="96">
         <f>Expenditure!$E$47</f>
-        <v>51960</v>
-      </c>
-      <c r="J7" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="102">
+        <v>58660</v>
+      </c>
+      <c r="J7" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="97">
         <f>Expenditure!$G$47</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="49"/>
-      <c r="B8" s="86" t="str">
+      <c r="B8" s="82" t="str">
         <f>Offering!B8</f>
         <v>Loose Offering</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="88">
         <f>Offering!$E$8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="94">
+      <c r="D8" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="89">
         <f>Offering!$G$8</f>
         <v>0</v>
       </c>
       <c r="G8" s="52"/>
-      <c r="H8" s="90" t="str">
+      <c r="H8" s="85" t="str">
         <f>Expenditure!B57</f>
         <v>Worship</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="96">
         <f>Expenditure!$E$57</f>
-        <v>2600</v>
-      </c>
-      <c r="J8" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="102">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="97">
         <f>Expenditure!$G$57</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="49"/>
-      <c r="B9" s="86" t="str">
+      <c r="B9" s="82" t="str">
         <f>Offering!B9</f>
         <v>Thanks</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="88">
         <f>Offering!$E$9</f>
         <v>8000</v>
       </c>
-      <c r="D9" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="94">
+      <c r="D9" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="89">
         <f>Offering!$G$9</f>
         <v>0</v>
       </c>
       <c r="G9" s="52"/>
-      <c r="H9" s="90" t="str">
+      <c r="H9" s="85" t="str">
         <f>Expenditure!B64</f>
         <v>Music</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="96">
         <f>Expenditure!$E$64</f>
         <v>2100</v>
       </c>
-      <c r="J9" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="102">
+      <c r="J9" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="97">
         <f>Expenditure!$G$64</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="49"/>
-      <c r="B10" s="86" t="str">
+      <c r="B10" s="82" t="str">
         <f>Offering!B10</f>
         <v>Tithe</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="88">
         <f>Offering!$E$10</f>
-        <v>3000</v>
-      </c>
-      <c r="D10" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="94">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="89">
         <f>Offering!$G$10</f>
         <v>0</v>
       </c>
       <c r="G10" s="52"/>
-      <c r="H10" s="90" t="str">
+      <c r="H10" s="85" t="str">
         <f>Expenditure!B71</f>
         <v>Mission &amp; Web</v>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="96">
         <f>Expenditure!$E$71</f>
-        <v>600</v>
-      </c>
-      <c r="J10" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="102">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="97">
         <f>Expenditure!$G$71</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="49"/>
-      <c r="B11" s="86" t="str">
+      <c r="B11" s="82" t="str">
         <f>Offering!B11</f>
         <v>Easter</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="88">
         <f>Offering!$E$11</f>
         <v>3000</v>
       </c>
-      <c r="D11" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="94">
+      <c r="D11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="89">
         <f>Offering!$G$11</f>
         <v>0</v>
       </c>
       <c r="G11" s="52"/>
-      <c r="H11" s="90" t="str">
+      <c r="H11" s="85" t="str">
         <f>Expenditure!B79</f>
         <v>Publication</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="96">
         <f>Expenditure!$E$79</f>
         <v>1100</v>
       </c>
-      <c r="J11" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="102">
+      <c r="J11" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="97">
         <f>Expenditure!$G$79</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="49"/>
-      <c r="B12" s="86" t="str">
+      <c r="B12" s="82" t="str">
         <f>Offering!B12</f>
         <v>Anniversary</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="88">
         <f>Offering!$E$12</f>
-        <v>1500</v>
-      </c>
-      <c r="D12" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="94">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="89">
         <f>Offering!$G$12</f>
         <v>0</v>
       </c>
       <c r="G12" s="52"/>
-      <c r="H12" s="90" t="str">
+      <c r="H12" s="85" t="str">
         <f>Expenditure!B93</f>
         <v>Christian Education</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="96">
         <f>Expenditure!$E$93</f>
-        <v>7800</v>
-      </c>
-      <c r="J12" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="102">
+        <v>7000</v>
+      </c>
+      <c r="J12" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="97">
         <f>Expenditure!$G$93</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="49"/>
-      <c r="B13" s="86" t="str">
+      <c r="B13" s="82" t="str">
         <f>Offering!B13</f>
         <v>Thanksgiving</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="88">
         <f>Offering!$E$13</f>
         <v>3000</v>
       </c>
-      <c r="D13" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="94">
+      <c r="D13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="89">
         <f>Offering!$G$13</f>
         <v>0</v>
       </c>
       <c r="G13" s="52"/>
-      <c r="H13" s="90" t="str">
+      <c r="H13" s="85" t="str">
         <f>Expenditure!B101</f>
         <v>Fellowship</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="96">
         <f>Expenditure!$E$101</f>
         <v>9000</v>
       </c>
-      <c r="J13" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="102">
+      <c r="J13" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="97">
         <f>Expenditure!$G$101</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="49"/>
-      <c r="B14" s="86" t="str">
+      <c r="B14" s="82" t="str">
         <f>Offering!B14</f>
         <v>Christmas</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="88">
         <f>Offering!$E$14</f>
-        <v>3500</v>
-      </c>
-      <c r="D14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="94">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="89">
         <f>Offering!$G$14</f>
         <v>0</v>
       </c>
       <c r="G14" s="52"/>
-      <c r="H14" s="90" t="str">
+      <c r="H14" s="85" t="str">
         <f>Expenditure!B105</f>
         <v>Wellcome</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="96">
         <f>Expenditure!$E$105</f>
         <v>1000</v>
       </c>
-      <c r="J14" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="102">
+      <c r="J14" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="97">
         <f>Expenditure!$G$105</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="49"/>
-      <c r="B15" s="86" t="str">
+      <c r="B15" s="82" t="str">
         <f>Offering!B15</f>
         <v>Canvass</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="88">
         <f>Offering!$E$15</f>
         <v>6000</v>
       </c>
-      <c r="D15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="94">
+      <c r="D15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="89">
         <f>Offering!$G$15</f>
         <v>0</v>
       </c>
       <c r="G15" s="52"/>
-      <c r="H15" s="90" t="str">
+      <c r="H15" s="85" t="str">
         <f>Expenditure!B109</f>
         <v>Contingency</v>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="96">
         <f>Expenditure!$E$109</f>
-        <v>7321.26</v>
-      </c>
-      <c r="J15" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="102">
+        <v>2690.359999999986</v>
+      </c>
+      <c r="J15" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="97">
         <f>Expenditure!$G$109</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="49"/>
-      <c r="B16" s="86" t="str">
+      <c r="B16" s="82" t="str">
         <f>Offering!B16</f>
         <v>Initial Offering</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="88">
         <f>Offering!$E$16</f>
         <v>400</v>
       </c>
-      <c r="D16" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="94">
+      <c r="D16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="89">
         <f>Offering!$G$16</f>
         <v>0</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="103">
+        <v>232</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="98">
         <f>SUBTOTAL(9,I6:I15)</f>
-        <v>176045.26</v>
-      </c>
-      <c r="J16" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="104">
+        <v>180350.36</v>
+      </c>
+      <c r="J16" s="60">
+        <f t="shared" ref="J16" si="2">IF(I16=0, 0, K16/I16*100)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="99">
         <f>SUBTOTAL(9,K6:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="49"/>
-      <c r="B17" s="86" t="str">
+      <c r="B17" s="82" t="str">
         <f>Offering!B17</f>
         <v>Group Contribution</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="88">
         <f>Offering!$E$17</f>
-        <v>3000</v>
-      </c>
-      <c r="D17" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="94">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="89">
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="49"/>
-      <c r="B18" s="86" t="str">
+      <c r="B18" s="82" t="str">
         <f>Offering!B18</f>
         <v>Miscellaneous</v>
       </c>
-      <c r="C18" s="93">
+      <c r="C18" s="88">
         <f>Offering!$E$18</f>
         <v>2500</v>
       </c>
-      <c r="D18" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="94">
+      <c r="D18" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="89">
         <f>Offering!$G$18</f>
         <v>0</v>
       </c>
       <c r="G18" s="56"/>
-      <c r="H18" s="119" t="str">
+      <c r="H18" s="114" t="str">
         <f>Expenditure!B114</f>
-        <v>Program Support</v>
-      </c>
-      <c r="I18" s="105">
+        <v>소회활동</v>
+      </c>
+      <c r="I18" s="100">
         <f>Expenditure!$E$114</f>
-        <v>5000</v>
-      </c>
-      <c r="J18" s="83">
-        <f>K18/I18*100</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="106">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="65">
+        <f t="shared" ref="J18:J25" si="3">IF(I18=0, 0, K18/I18*100)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="101">
         <f>Expenditure!$G$114</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="49"/>
-      <c r="B19" s="86" t="str">
+      <c r="B19" s="82" t="str">
         <f>Offering!B19</f>
         <v>Fellowship</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="88">
         <f>Offering!$E$19</f>
-        <v>5000</v>
-      </c>
-      <c r="D19" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="94">
+        <v>4000</v>
+      </c>
+      <c r="D19" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="89">
         <f>Offering!$G$19</f>
         <v>0</v>
       </c>
       <c r="G19" s="56"/>
-      <c r="H19" s="119" t="str">
+      <c r="H19" s="114" t="str">
         <f>Expenditure!B115</f>
         <v>M &amp; S</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="100">
         <f>Expenditure!$E$115</f>
         <v>3000</v>
       </c>
-      <c r="J19" s="83">
-        <f>K19/I19*100</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="106">
+      <c r="J19" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="101">
         <f>Expenditure!$G$115</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="49"/>
-      <c r="B20" s="86" t="str">
+      <c r="B20" s="82" t="str">
         <f>Offering!B20</f>
         <v>Visitor</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="88">
         <f>Offering!$E$20</f>
         <v>1500</v>
       </c>
-      <c r="D20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="94">
+      <c r="D20" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="89">
         <f>Offering!$G$20</f>
         <v>0</v>
       </c>
       <c r="G20" s="56"/>
-      <c r="H20" s="119" t="str">
+      <c r="H20" s="114" t="str">
         <f>Expenditure!B116</f>
         <v>Refugee Assist</v>
       </c>
-      <c r="I20" s="105">
+      <c r="I20" s="100">
         <f>Expenditure!$E$116</f>
-        <v>3500</v>
-      </c>
-      <c r="J20" s="83">
-        <f>K20/I20*100</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="106">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="101">
         <f>Expenditure!$G$116</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="49"/>
-      <c r="B21" s="86" t="str">
+      <c r="B21" s="82" t="str">
         <f>Offering!B21</f>
         <v>Summer Camp</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="88">
         <f>Offering!$E$21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="94">
+      <c r="D21" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="89">
         <f>Offering!$G$21</f>
         <v>0</v>
       </c>
       <c r="G21" s="56"/>
-      <c r="H21" s="120" t="str">
+      <c r="H21" s="115" t="str">
         <f>Expenditure!B117</f>
         <v>Ont Senior Community Grant</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="100">
         <f>Expenditure!$E$117</f>
-        <v>26600</v>
-      </c>
-      <c r="J21" s="83">
-        <f>K21/I21*100</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="106">
+        <v>0</v>
+      </c>
+      <c r="J21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="101">
         <f>Expenditure!$G$117</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="95">
-        <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
-        <v>138400</v>
-      </c>
-      <c r="D22" s="88">
-        <f>E22/C22*100</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="96">
-        <f t="shared" si="2"/>
+      <c r="A22" s="142" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="90">
+        <f t="shared" ref="C22:E22" si="4">SUBTOTAL(9,C6:C21)</f>
+        <v>122400</v>
+      </c>
+      <c r="D22" s="60">
+        <f t="shared" ref="D22" si="5">IF(C22=0, 0, E22/C22*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="91">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="54"/>
-      <c r="H22" s="120" t="str">
+      <c r="H22" s="115" t="str">
         <f>Expenditure!B118</f>
         <v>Embracing the Spirit Growth Grants</v>
       </c>
-      <c r="I22" s="105">
+      <c r="I22" s="100">
         <f>Expenditure!$E$118</f>
-        <v>26400</v>
-      </c>
-      <c r="J22" s="83">
-        <f>K22/I22*100</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="106">
+        <v>2226.13</v>
+      </c>
+      <c r="J22" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="101">
         <f>Expenditure!$G$118</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="134"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="119" t="str">
+      <c r="H23" s="114" t="str">
         <f>Expenditure!B119</f>
-        <v>Water well &amp; Eugene Bell Canada Foundation</v>
-      </c>
-      <c r="I23" s="105">
+        <v>KCPCAC &amp; Eugene Bell Canada Foundation</v>
+      </c>
+      <c r="I23" s="100">
         <f>Expenditure!$E$119</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="106">
+        <v>500</v>
+      </c>
+      <c r="J23" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="101">
         <f>Expenditure!$G$119</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="73"/>
-      <c r="B24" s="82" t="str">
+      <c r="A24" s="70"/>
+      <c r="B24" s="79" t="str">
         <f>Offering!B24</f>
         <v>Korean Language Grant</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="92">
         <f>Offering!$E$24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="98">
+      <c r="D24" s="65">
+        <f t="shared" ref="D24:D30" si="6">IF(C24=0, 0, E24/C24*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="93">
         <f>Offering!$G$24</f>
         <v>0</v>
       </c>
       <c r="G24" s="56"/>
-      <c r="H24" s="119" t="str">
+      <c r="H24" s="114" t="str">
         <f>Expenditure!B120</f>
         <v>Designated fund</v>
       </c>
-      <c r="I24" s="105">
+      <c r="I24" s="100">
         <f>Expenditure!$E$120</f>
-        <v>1500</v>
-      </c>
-      <c r="J24" s="83">
-        <f>K24/I24*100</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="106">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="101">
         <f>Expenditure!$G$120</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="50"/>
-      <c r="B25" s="82" t="str">
+      <c r="B25" s="79" t="str">
         <f>Offering!B25</f>
         <v>Refugee Programme</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="92">
         <f>Offering!$E$25</f>
-        <v>7000</v>
-      </c>
-      <c r="D25" s="83">
-        <f t="shared" ref="D25:D28" si="3">E25/C25*100</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="98">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="93">
         <f>Offering!$G$25</f>
         <v>0</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="103">
+        <v>235</v>
+      </c>
+      <c r="H25" s="87"/>
+      <c r="I25" s="98">
         <f>SUBTOTAL(9,I18:I24)</f>
-        <v>66000</v>
-      </c>
-      <c r="J25" s="88">
-        <f>K25/I25*100</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="104">
+        <v>13226.130000000001</v>
+      </c>
+      <c r="J25" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="99">
         <f>SUBTOTAL(9,K18:K24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="50"/>
-      <c r="B26" s="78" t="str">
+      <c r="B26" s="75" t="str">
         <f>Offering!B26</f>
         <v>Ont Senior Community Grant</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="92">
         <f>Offering!$E$26</f>
-        <v>22000</v>
-      </c>
-      <c r="D26" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="98">
+        <v>0</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="93">
         <f>Offering!$G$26</f>
         <v>0</v>
       </c>
       <c r="G26" s="54"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="50"/>
-      <c r="B27" s="78" t="str">
+      <c r="B27" s="75" t="str">
         <f>Offering!B27</f>
         <v>Embracing the Spirit Growth Grants</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="92">
         <f>Offering!$E$27</f>
-        <v>9200</v>
-      </c>
-      <c r="D27" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="98">
+        <v>0</v>
+      </c>
+      <c r="D27" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="93">
         <f>Offering!$G$27</f>
         <v>0</v>
       </c>
       <c r="G27" s="54"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="55"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="50"/>
-      <c r="B28" s="82" t="str">
+      <c r="B28" s="124" t="str">
         <f>Offering!B28</f>
+        <v>소회활동</v>
+      </c>
+      <c r="C28" s="92">
+        <f>Offering!E28</f>
+        <v>4500</v>
+      </c>
+      <c r="D28" s="65">
+        <f t="shared" ref="D28" si="7">IF(C28=0, 0, E28/C28*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="93">
+        <f>Offering!$G$27</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="50"/>
+      <c r="B29" s="79" t="str">
+        <f>Offering!B29</f>
         <v xml:space="preserve">Designated fund </v>
       </c>
-      <c r="C28" s="97">
-        <f>Offering!$E$28</f>
-        <v>1500</v>
-      </c>
-      <c r="D28" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="98">
-        <f>Offering!$G$28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="55"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="128" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="95">
-        <f>SUBTOTAL(9,C24:C28)</f>
-        <v>39700</v>
-      </c>
-      <c r="D29" s="88">
-        <f>E29/C29*100</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="96">
-        <f>SUBTOTAL(9,E24:E28)</f>
+      <c r="C29" s="92">
+        <f>Offering!$E$29</f>
+        <v>1000</v>
+      </c>
+      <c r="D29" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="93">
+        <f>Offering!$G$29</f>
         <v>0</v>
       </c>
       <c r="G29" s="54"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
       <c r="K29" s="55"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
+      <c r="A30" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="143"/>
+      <c r="C30" s="90">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>10500</v>
+      </c>
+      <c r="D30" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="91">
+        <f>SUBTOTAL(9,E24:E29)</f>
+        <v>0</v>
+      </c>
       <c r="G30" s="54"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="55"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="95">
-        <f>SUBTOTAL(9,C6:C29)</f>
-        <v>178100</v>
-      </c>
-      <c r="D31" s="88">
-        <f>E31/C31*100</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="96">
-        <f>SUBTOTAL(9,E6:E29)</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="150"/>
       <c r="G31" s="54"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="55"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="51"/>
-      <c r="B32" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="93">
-        <f>Offering!$E$32</f>
-        <v>63945.25999999998</v>
-      </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="94"/>
+      <c r="A32" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="90">
+        <f>SUBTOTAL(9,C6:C30)</f>
+        <v>132900</v>
+      </c>
+      <c r="D32" s="60">
+        <f t="shared" ref="D32" si="8">IF(C32=0, 0, E32/C32*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="91">
+        <f>SUBTOTAL(9,E6:E30)</f>
+        <v>0</v>
+      </c>
       <c r="G32" s="54"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="55"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="49"/>
-      <c r="B33" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="93">
+    <row r="33" spans="1:13">
+      <c r="A33" s="51"/>
+      <c r="B33" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="88">
         <f>Offering!$E$33</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="94">
-        <f>Offering!$G$33</f>
-        <v>0</v>
-      </c>
+        <v>60676.49</v>
+      </c>
+      <c r="D33" s="83"/>
+      <c r="E33" s="89"/>
       <c r="G33" s="54"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="55"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="131"/>
-      <c r="C34" s="99">
-        <f>SUBTOTAL(9,C6:C33)</f>
-        <v>242045.25999999998</v>
-      </c>
-      <c r="D34" s="68">
-        <f>E34/C34*100</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="100">
-        <f>SUBTOTAL(9,E6:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="140" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="107">
+    <row r="34" spans="1:13">
+      <c r="A34" s="49"/>
+      <c r="B34" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="88">
+        <f>Offering!$E$34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="83"/>
+      <c r="E34" s="89">
+        <f>Offering!$G$34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="55"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="145"/>
+      <c r="C35" s="94">
+        <f>SUBTOTAL(9,C6:C34)</f>
+        <v>193576.49</v>
+      </c>
+      <c r="D35" s="61">
+        <f t="shared" ref="D35" si="9">IF(C35=0, 0, E35/C35*100)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="95">
+        <f>SUBTOTAL(9,E6:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="155"/>
+      <c r="I35" s="102">
         <f>SUBTOTAL(9,I6:I25)</f>
-        <v>242045.26</v>
-      </c>
-      <c r="J34" s="68">
-        <f t="shared" ref="J34" si="4">K34/I34*100</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="108">
+        <v>193576.49</v>
+      </c>
+      <c r="J35" s="61">
+        <f t="shared" ref="J35" si="10">IF(I35=0, 0, K35/I35*100)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="103">
         <f>SUBTOTAL(9,K6:K25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
+    <row r="36" spans="1:13">
+      <c r="M36" s="123">
+        <f>C35-I35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,13 +3025,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CF550-27FC-43F1-88DC-1E797AD2F4C1}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2999,7 +3056,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.5">
       <c r="A2" s="158" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B2" s="159"/>
       <c r="C2" s="159"/>
@@ -3010,7 +3067,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="160" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B3" s="160"/>
       <c r="C3" s="159"/>
@@ -3021,7 +3078,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="161" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="15"/>
@@ -3032,510 +3089,544 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="162" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B5" s="162"/>
-      <c r="C5" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>250</v>
+      <c r="C5" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>241</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="114" t="s">
-        <v>251</v>
+      <c r="G5" s="109" t="s">
+        <v>242</v>
       </c>
       <c r="H5" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="P5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="S5" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="121">
-        <v>100000</v>
-      </c>
-      <c r="D6" s="121">
-        <v>87725</v>
-      </c>
-      <c r="E6" s="121">
+        <v>191</v>
+      </c>
+      <c r="C6" s="116">
         <v>95000</v>
       </c>
+      <c r="D6" s="116">
+        <v>86870</v>
+      </c>
+      <c r="E6" s="116">
+        <v>86000</v>
+      </c>
       <c r="F6" s="59">
-        <f>G6/E6*100</f>
+        <f>IF(E6=0, 0, G6/E6*100)</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
         <f>SUM(H6:S6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="121">
+        <v>192</v>
+      </c>
+      <c r="C7" s="116">
         <v>3000</v>
       </c>
-      <c r="D7" s="121">
-        <v>0</v>
-      </c>
-      <c r="E7" s="121">
-        <v>3000</v>
+      <c r="D7" s="116">
+        <v>0</v>
+      </c>
+      <c r="E7" s="116">
+        <v>0</v>
       </c>
       <c r="F7" s="59">
-        <f>G7/E7*100</f>
+        <f t="shared" ref="F7:F21" si="0">IF(E7=0, 0, G7/E7*100)</f>
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" ref="G7:G21" si="0">SUM(H7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="74"/>
+        <f t="shared" ref="G7:G21" si="1">SUM(H7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="121">
-        <v>200</v>
-      </c>
-      <c r="D8" s="121">
-        <v>0</v>
-      </c>
-      <c r="E8" s="121">
-        <v>0</v>
-      </c>
-      <c r="F8" s="59"/>
+        <v>193</v>
+      </c>
+      <c r="C8" s="116">
+        <v>0</v>
+      </c>
+      <c r="D8" s="116">
+        <v>0</v>
+      </c>
+      <c r="E8" s="116">
+        <v>0</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="121">
-        <v>6500</v>
-      </c>
-      <c r="D9" s="121">
-        <v>7785</v>
-      </c>
-      <c r="E9" s="121">
+        <v>194</v>
+      </c>
+      <c r="C9" s="116">
         <v>8000</v>
       </c>
+      <c r="D9" s="116">
+        <v>10375</v>
+      </c>
+      <c r="E9" s="116">
+        <v>8000</v>
+      </c>
       <c r="F9" s="59">
-        <f t="shared" ref="F9:F20" si="1">G9/E9*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="121">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="121">
-        <v>2740</v>
-      </c>
-      <c r="E10" s="121">
+        <v>195</v>
+      </c>
+      <c r="C10" s="116">
         <v>3000</v>
       </c>
+      <c r="D10" s="116">
+        <v>1190</v>
+      </c>
+      <c r="E10" s="116">
+        <v>1500</v>
+      </c>
       <c r="F10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="74"/>
-      <c r="Q10" s="74"/>
+      <c r="H10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="121">
-        <v>3500</v>
-      </c>
-      <c r="D11" s="121">
-        <v>2650</v>
-      </c>
-      <c r="E11" s="121">
+        <v>196</v>
+      </c>
+      <c r="C11" s="116">
         <v>3000</v>
       </c>
+      <c r="D11" s="116">
+        <v>2900</v>
+      </c>
+      <c r="E11" s="116">
+        <v>3000</v>
+      </c>
       <c r="F11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="O11" s="74"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="121">
+        <v>197</v>
+      </c>
+      <c r="C12" s="116">
         <v>1500</v>
       </c>
-      <c r="D12" s="121">
-        <v>1395</v>
-      </c>
-      <c r="E12" s="121">
-        <v>1500</v>
+      <c r="D12" s="116">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="116">
+        <v>2000</v>
       </c>
       <c r="F12" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="S12" s="71"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="121">
-        <v>4500</v>
-      </c>
-      <c r="D13" s="121">
-        <v>2825</v>
-      </c>
-      <c r="E13" s="121">
+        <v>198</v>
+      </c>
+      <c r="C13" s="116">
         <v>3000</v>
       </c>
+      <c r="D13" s="116">
+        <v>2910</v>
+      </c>
+      <c r="E13" s="116">
+        <v>3000</v>
+      </c>
       <c r="F13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="121">
-        <v>4000</v>
-      </c>
-      <c r="D14" s="121">
-        <v>3350</v>
-      </c>
-      <c r="E14" s="121">
+        <v>199</v>
+      </c>
+      <c r="C14" s="116">
         <v>3500</v>
       </c>
+      <c r="D14" s="116">
+        <v>2860</v>
+      </c>
+      <c r="E14" s="116">
+        <v>3000</v>
+      </c>
       <c r="F14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="74"/>
+      <c r="S14" s="71"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="121">
+        <v>200</v>
+      </c>
+      <c r="C15" s="116">
         <v>6000</v>
       </c>
-      <c r="D15" s="121">
-        <v>6185</v>
-      </c>
-      <c r="E15" s="121">
+      <c r="D15" s="116">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="116">
         <v>6000</v>
       </c>
       <c r="F15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="121">
-        <v>500</v>
-      </c>
-      <c r="D16" s="121">
-        <v>580</v>
-      </c>
-      <c r="E16" s="121">
+        <v>201</v>
+      </c>
+      <c r="C16" s="116">
         <v>400</v>
       </c>
+      <c r="D16" s="116">
+        <v>350</v>
+      </c>
+      <c r="E16" s="116">
+        <v>400</v>
+      </c>
       <c r="F16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="Q16" s="74"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="Q16" s="71"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="121">
-        <v>4500</v>
-      </c>
-      <c r="D17" s="121">
-        <v>2904.29</v>
-      </c>
-      <c r="E17" s="121">
+        <v>202</v>
+      </c>
+      <c r="C17" s="116">
         <v>3000</v>
       </c>
+      <c r="D17" s="116">
+        <v>5555</v>
+      </c>
+      <c r="E17" s="116">
+        <v>1500</v>
+      </c>
       <c r="F17" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="121">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="121">
-        <v>2308.9500000000003</v>
-      </c>
-      <c r="E18" s="121">
+        <v>203</v>
+      </c>
+      <c r="C18" s="116">
         <v>2500</v>
       </c>
+      <c r="D18" s="116">
+        <v>2829.8199999999997</v>
+      </c>
+      <c r="E18" s="116">
+        <v>2500</v>
+      </c>
       <c r="F18" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="S18" s="74"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="121">
-        <v>6000</v>
-      </c>
-      <c r="D19" s="121">
-        <v>1380</v>
-      </c>
-      <c r="E19" s="121">
+        <v>138</v>
+      </c>
+      <c r="C19" s="116">
         <v>5000</v>
       </c>
+      <c r="D19" s="116">
+        <v>4100</v>
+      </c>
+      <c r="E19" s="116">
+        <v>4000</v>
+      </c>
       <c r="F19" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="121">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="121">
-        <v>3110</v>
-      </c>
-      <c r="E20" s="121">
+        <v>204</v>
+      </c>
+      <c r="C20" s="116">
         <v>1500</v>
       </c>
+      <c r="D20" s="116">
+        <v>1360</v>
+      </c>
+      <c r="E20" s="116">
+        <v>1500</v>
+      </c>
       <c r="F20" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="121">
-        <v>0</v>
-      </c>
-      <c r="D21" s="121">
-        <v>0</v>
-      </c>
-      <c r="E21" s="121">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="C21" s="116">
+        <v>0</v>
+      </c>
+      <c r="D21" s="116">
+        <v>0</v>
+      </c>
+      <c r="E21" s="116">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="163" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B22" s="163"/>
       <c r="C22" s="10">
         <f>SUBTOTAL(9,C6:C21)</f>
-        <v>144200</v>
+        <v>138400</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" ref="D22:S22" si="2">SUBTOTAL(9,D6:D21)</f>
-        <v>124938.23999999999</v>
+        <v>129299.82</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="2"/>
-        <v>138400</v>
+        <v>122400</v>
       </c>
       <c r="F22" s="60">
-        <f>G22/E22*100</f>
+        <f>IF(E22=0, 0, G22/E22*100)</f>
         <v>0</v>
       </c>
       <c r="G22" s="10">
@@ -3615,430 +3706,462 @@
     <row r="24" spans="1:19">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="122">
-        <v>4000</v>
-      </c>
-      <c r="D24" s="122">
-        <v>3176.26</v>
-      </c>
-      <c r="E24" s="122">
-        <v>0</v>
-      </c>
-      <c r="F24" s="67"/>
+        <v>214</v>
+      </c>
+      <c r="C24" s="117">
+        <v>0</v>
+      </c>
+      <c r="D24" s="117">
+        <v>0</v>
+      </c>
+      <c r="E24" s="117">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" ref="F24:F34" si="3">IF(E24=0, 0, G24/E24*100)</f>
+        <v>0</v>
+      </c>
       <c r="G24" s="19">
-        <f t="shared" ref="G24:G28" si="3">SUM(H24:S24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="74"/>
-      <c r="Q24" s="74"/>
+        <f t="shared" ref="G24:G29" si="4">SUM(H24:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="71"/>
+      <c r="Q24" s="71"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="12"/>
       <c r="B25" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="122">
-        <v>9000</v>
-      </c>
-      <c r="D25" s="122">
-        <v>9000</v>
-      </c>
-      <c r="E25" s="122">
+        <v>207</v>
+      </c>
+      <c r="C25" s="117">
         <v>7000</v>
       </c>
-      <c r="F25" s="67">
-        <f>G25/E25*100</f>
+      <c r="D25" s="117">
+        <v>7000</v>
+      </c>
+      <c r="E25" s="117">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="74"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="71"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="12"/>
-      <c r="B26" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="122">
-        <v>21000</v>
+      <c r="B26" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="117">
+        <v>22000</v>
       </c>
       <c r="D26" s="5">
-        <v>21000</v>
-      </c>
-      <c r="E26" s="122">
-        <v>22000</v>
-      </c>
-      <c r="F26" s="67">
-        <f>G26/E26*100</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="117">
+        <v>0</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="81"/>
+      <c r="B27" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="117">
+        <v>9200</v>
+      </c>
+      <c r="D27" s="117">
+        <v>2226.13</v>
+      </c>
+      <c r="E27" s="117">
+        <v>0</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="85"/>
-      <c r="B27" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="122">
-        <v>5000</v>
-      </c>
-      <c r="D27" s="122">
-        <v>18800</v>
-      </c>
-      <c r="E27" s="122">
-        <v>9200</v>
-      </c>
-      <c r="F27" s="67">
-        <f>G27/E27*100</f>
-        <v>0</v>
-      </c>
       <c r="G27" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="71"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="81"/>
+      <c r="B28" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117">
+        <v>4500</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" ref="F28" si="5">IF(E28=0, 0, G28/E28*100)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" ref="G28" si="6">SUM(H28:S28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="71"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="117">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="117">
+        <v>4010</v>
+      </c>
+      <c r="E29" s="117">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11" t="s">
+      <c r="G29" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="163"/>
+      <c r="C30" s="10">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>39700</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUBTOTAL(9,D24:D29)</f>
+        <v>13236.130000000001</v>
+      </c>
+      <c r="E30" s="10">
+        <f>SUBTOTAL(9,E24:E29)</f>
+        <v>10500</v>
+      </c>
+      <c r="F30" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUBTOTAL(9,G24:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" ref="H30:S30" si="7">SUBTOTAL(9,H24:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10">
+        <f>SUBTOTAL(9,C6:C30)</f>
+        <v>178100</v>
+      </c>
+      <c r="D32" s="10">
+        <f>SUBTOTAL(9,D6:D30)</f>
+        <v>142535.95000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <f>SUBTOTAL(9,E6:E30)</f>
+        <v>132900</v>
+      </c>
+      <c r="F32" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUBTOTAL(9,G6:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" ref="H32:S32" si="8">SUBTOTAL(9,H6:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="116">
+        <v>63945.25999999998</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="116">
+        <v>60676.49</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <f>SUM(H34:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="157" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="122">
-        <v>1500</v>
-      </c>
-      <c r="D28" s="122">
-        <v>1400</v>
-      </c>
-      <c r="E28" s="122">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="67">
-        <f>G28/E28*100</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="163" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="10">
-        <f>SUBTOTAL(9,C24:C28)</f>
-        <v>40500</v>
-      </c>
-      <c r="D29" s="10">
-        <f>SUBTOTAL(9,D24:D28)</f>
-        <v>53376.26</v>
-      </c>
-      <c r="E29" s="10">
-        <f>SUBTOTAL(9,E24:E28)</f>
-        <v>39700</v>
-      </c>
-      <c r="F29" s="60">
-        <f>G29/E29*100</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <f>SUBTOTAL(9,G24:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" ref="H29:S29" si="4">SUBTOTAL(9,H24:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="164"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10">
-        <f>SUBTOTAL(9,C6:C29)</f>
-        <v>184700</v>
-      </c>
-      <c r="D31" s="10">
-        <f>SUBTOTAL(9,D6:D29)</f>
-        <v>178314.5</v>
-      </c>
-      <c r="E31" s="10">
-        <f>SUBTOTAL(9,E6:E29)</f>
-        <v>178100</v>
-      </c>
-      <c r="F31" s="60">
-        <f>G31/E31*100</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <f>SUBTOTAL(9,G6:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" ref="H31:S31" si="5">SUBTOTAL(9,H6:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="9">
-        <v>57490.400000000001</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="121">
-        <v>63945.25999999998</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="9">
-        <v>5000</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="18">
-        <f>SUM(H33:S33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="157" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="20">
-        <f>SUBTOTAL(9,C6:C33)</f>
-        <v>247190.39999999999</v>
-      </c>
-      <c r="D34" s="20">
-        <f>SUBTOTAL(9,D6:D33)</f>
-        <v>178314.5</v>
-      </c>
-      <c r="E34" s="20">
-        <f>SUBTOTAL(9,E6:E33)</f>
+      <c r="B35" s="157"/>
+      <c r="C35" s="20">
+        <f>SUBTOTAL(9,C6:C34)</f>
         <v>242045.25999999998</v>
       </c>
-      <c r="F34" s="61">
-        <f>G34/E34*100</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
-        <f>SUBTOTAL(9,G6:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
-        <f t="shared" ref="H34:S34" si="6">SUBTOTAL(9,H6:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="F35" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="74"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="D37" s="4"/>
+      <c r="D35" s="20">
+        <f>SUBTOTAL(9,D6:D34)</f>
+        <v>142535.95000000001</v>
+      </c>
+      <c r="E35" s="20">
+        <f>SUBTOTAL(9,E6:E34)</f>
+        <v>193576.49</v>
+      </c>
+      <c r="F35" s="61">
+        <f t="shared" ref="F35" si="9">IF(E35=0, 0, G35/E35*100)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <f>SUBTOTAL(9,G6:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" ref="H35:S35" si="10">SUBTOTAL(9,H6:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="F36" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="71"/>
     </row>
     <row r="38" spans="1:19">
       <c r="D38" s="4"/>
+      <c r="E38" s="122"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H30:S30"/>
+    <mergeCell ref="H31:S31"/>
     <mergeCell ref="H23:S23"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4049,11 +4172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D32CE1F-8507-4054-9548-AB4CA2F77C9C}">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4067,14 +4190,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
+      <c r="A1" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="159"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
@@ -4090,14 +4213,14 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="166">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="A2" s="170">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
       <c r="G2" s="159"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4113,14 +4236,14 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="166" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
+      <c r="A3" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="159"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -4142,67 +4265,67 @@
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="115" t="s">
-        <v>250</v>
+      <c r="C4" s="110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>241</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="116" t="s">
-        <v>251</v>
+      <c r="G4" s="111" t="s">
+        <v>242</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="168"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="170"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="166"/>
       <c r="I5" s="156"/>
       <c r="J5" s="156"/>
       <c r="K5" s="156"/>
@@ -4216,16 +4339,16 @@
       <c r="S5" s="156"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="166"/>
       <c r="I6" s="156"/>
       <c r="J6" s="156"/>
       <c r="K6" s="156"/>
@@ -4293,35 +4416,35 @@
       <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="75">
-        <v>46250</v>
-      </c>
-      <c r="D9" s="75">
-        <v>33343</v>
-      </c>
-      <c r="E9" s="75">
+      <c r="C9" s="72">
         <v>33000</v>
       </c>
-      <c r="F9" s="63">
-        <f>G9/E9*100</f>
+      <c r="D9" s="72">
+        <v>36257.9</v>
+      </c>
+      <c r="E9" s="72">
+        <v>41000</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" ref="F9:F16" si="0">IF(E9=0, 0, G9/E9*100)</f>
         <v>0</v>
       </c>
       <c r="G9" s="28">
         <f>SUM(H9:S9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
     </row>
     <row r="10" spans="1:19" ht="14.5">
       <c r="A10" s="26" t="s">
@@ -4330,53 +4453,53 @@
       <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="75">
-        <v>22000</v>
-      </c>
-      <c r="D10" s="75">
-        <v>12832</v>
-      </c>
-      <c r="E10" s="75">
+      <c r="C10" s="72">
         <v>20000</v>
       </c>
-      <c r="F10" s="63">
-        <f t="shared" ref="F10:F15" si="0">G10/E10*100</f>
+      <c r="D10" s="72">
+        <v>0</v>
+      </c>
+      <c r="E10" s="72">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ref="G10:G16" si="1">SUM(H10:S10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19" ht="14.5">
       <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="75">
+        <v>243</v>
+      </c>
+      <c r="C11" s="72">
         <v>3984</v>
       </c>
-      <c r="D11" s="75">
-        <v>2324</v>
-      </c>
-      <c r="E11" s="75">
-        <v>3984</v>
-      </c>
-      <c r="F11" s="63">
+      <c r="D11" s="72">
+        <v>333.2999999999999</v>
+      </c>
+      <c r="E11" s="72">
+        <v>2800</v>
+      </c>
+      <c r="F11" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4384,36 +4507,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="14.5">
       <c r="A12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="75">
+      <c r="C12" s="72">
         <v>2400</v>
       </c>
-      <c r="D12" s="75">
-        <v>1429.41</v>
-      </c>
-      <c r="E12" s="75">
-        <v>2400</v>
-      </c>
-      <c r="F12" s="63">
+      <c r="D12" s="72">
+        <v>0</v>
+      </c>
+      <c r="E12" s="72">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4421,36 +4544,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
     </row>
     <row r="13" spans="1:19" ht="14.5">
       <c r="A13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="75">
+      <c r="C13" s="72">
         <v>1400</v>
       </c>
-      <c r="D13" s="75">
-        <v>880.55</v>
-      </c>
-      <c r="E13" s="75">
-        <v>1400</v>
-      </c>
-      <c r="F13" s="63">
+      <c r="D13" s="72">
+        <v>742.79999999999984</v>
+      </c>
+      <c r="E13" s="72">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4458,36 +4581,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:19" ht="14.5">
       <c r="A14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="75">
-        <v>6200</v>
-      </c>
-      <c r="D14" s="75">
-        <v>3582.8999999999996</v>
-      </c>
-      <c r="E14" s="75">
+      <c r="C14" s="72">
         <v>5000</v>
       </c>
-      <c r="F14" s="63">
+      <c r="D14" s="72">
+        <v>0</v>
+      </c>
+      <c r="E14" s="72">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4495,36 +4618,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="14.5">
       <c r="A15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="75">
-        <v>5900</v>
-      </c>
-      <c r="D15" s="75">
-        <v>3970.7200000000003</v>
-      </c>
-      <c r="E15" s="75">
+      <c r="C15" s="72">
         <v>6000</v>
       </c>
-      <c r="F15" s="63">
+      <c r="D15" s="72">
+        <v>0</v>
+      </c>
+      <c r="E15" s="72">
+        <v>3500</v>
+      </c>
+      <c r="F15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4532,61 +4655,64 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
     </row>
     <row r="16" spans="1:19" ht="14.5">
       <c r="A16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="75">
-        <v>1440</v>
-      </c>
-      <c r="D16" s="75">
-        <v>225.72</v>
-      </c>
-      <c r="E16" s="75">
-        <v>0</v>
-      </c>
-      <c r="F16" s="63"/>
+      <c r="C16" s="72">
+        <v>0</v>
+      </c>
+      <c r="D16" s="72">
+        <v>642.9</v>
+      </c>
+      <c r="E16" s="72">
+        <v>900</v>
+      </c>
+      <c r="F16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="74"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:19" ht="14.5">
       <c r="A17" s="26"/>
       <c r="B17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="27"/>
       <c r="G17" s="31"/>
       <c r="H17" s="47"/>
@@ -4604,123 +4730,123 @@
     </row>
     <row r="18" spans="1:19" ht="14.5">
       <c r="A18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="75">
-        <v>12000</v>
-      </c>
-      <c r="D18" s="75">
-        <v>4000</v>
-      </c>
-      <c r="E18" s="75">
+      <c r="C18" s="72">
         <v>9600</v>
       </c>
-      <c r="F18" s="63">
-        <f t="shared" ref="F18:F20" si="2">G18/E18*100</f>
+      <c r="D18" s="72">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="72">
+        <v>9600</v>
+      </c>
+      <c r="F18" s="59">
+        <f>IF(E18=0, 0, G18/E18*100)</f>
         <v>0</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" ref="G18:G20" si="3">SUM(H18:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
+        <f t="shared" ref="G18:G20" si="2">SUM(H18:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19" ht="14.5">
       <c r="A19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="75">
-        <v>500</v>
-      </c>
-      <c r="D19" s="75">
-        <v>115.92</v>
-      </c>
-      <c r="E19" s="75">
+      <c r="C19" s="72">
         <v>360</v>
       </c>
-      <c r="F19" s="63">
+      <c r="D19" s="72">
+        <v>363</v>
+      </c>
+      <c r="E19" s="72">
+        <v>400</v>
+      </c>
+      <c r="F19" s="59">
+        <f>IF(E19=0, 0, G19/E19*100)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
     </row>
     <row r="20" spans="1:19" ht="14.5">
       <c r="A20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="75">
-        <v>270</v>
-      </c>
-      <c r="D20" s="75">
-        <v>70.8</v>
-      </c>
-      <c r="E20" s="75">
+      <c r="C20" s="72">
         <v>230</v>
       </c>
-      <c r="F20" s="63">
+      <c r="D20" s="72">
+        <v>219.11999999999998</v>
+      </c>
+      <c r="E20" s="72">
+        <v>250</v>
+      </c>
+      <c r="F20" s="59">
+        <f>IF(E20=0, 0, G20/E20*100)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
     </row>
     <row r="21" spans="1:19" ht="14.5">
       <c r="A21" s="26"/>
       <c r="B21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="27"/>
       <c r="G21" s="31"/>
       <c r="H21" s="47"/>
@@ -4738,23 +4864,26 @@
     </row>
     <row r="22" spans="1:19" ht="14.5">
       <c r="A22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="75">
-        <v>12000</v>
-      </c>
-      <c r="D22" s="75">
-        <v>0</v>
-      </c>
-      <c r="E22" s="75">
-        <v>0</v>
-      </c>
-      <c r="F22" s="63"/>
+      <c r="C22" s="72">
+        <v>0</v>
+      </c>
+      <c r="D22" s="72">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="72">
+        <v>0</v>
+      </c>
+      <c r="F22" s="59">
+        <f>IF(E22=0, 0, G22/E22*100)</f>
+        <v>0</v>
+      </c>
       <c r="G22" s="28">
-        <f t="shared" ref="G22:G24" si="4">SUM(H22:S22)</f>
+        <f t="shared" ref="G22:G24" si="3">SUM(H22:S22)</f>
         <v>0</v>
       </c>
       <c r="H22" s="47"/>
@@ -4764,31 +4893,34 @@
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
     </row>
     <row r="23" spans="1:19" ht="14.5">
       <c r="A23" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="75">
-        <v>500</v>
-      </c>
-      <c r="D23" s="75">
-        <v>0</v>
-      </c>
-      <c r="E23" s="75">
-        <v>0</v>
-      </c>
-      <c r="F23" s="63"/>
+        <v>27</v>
+      </c>
+      <c r="C23" s="72">
+        <v>0</v>
+      </c>
+      <c r="D23" s="72">
+        <v>62</v>
+      </c>
+      <c r="E23" s="72">
+        <v>0</v>
+      </c>
+      <c r="F23" s="59">
+        <f>IF(E23=0, 0, G23/E23*100)</f>
+        <v>0</v>
+      </c>
       <c r="G23" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="47"/>
@@ -4798,31 +4930,34 @@
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="14.5">
       <c r="A24" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="75">
-        <v>270</v>
-      </c>
-      <c r="D24" s="75">
-        <v>0</v>
-      </c>
-      <c r="E24" s="75">
-        <v>0</v>
-      </c>
-      <c r="F24" s="63"/>
+        <v>29</v>
+      </c>
+      <c r="C24" s="72">
+        <v>0</v>
+      </c>
+      <c r="D24" s="72">
+        <v>57.05</v>
+      </c>
+      <c r="E24" s="72">
+        <v>0</v>
+      </c>
+      <c r="F24" s="59">
+        <f>IF(E24=0, 0, G24/E24*100)</f>
+        <v>0</v>
+      </c>
       <c r="G24" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="47"/>
@@ -4832,20 +4967,20 @@
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" ht="14.5">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+        <v>244</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="27"/>
       <c r="G25" s="31"/>
       <c r="H25" s="47"/>
@@ -4863,132 +4998,135 @@
     </row>
     <row r="26" spans="1:19" ht="14.5">
       <c r="A26" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="75">
+        <v>32</v>
+      </c>
+      <c r="C26" s="72">
         <v>9600</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="72">
         <v>9600</v>
       </c>
-      <c r="E26" s="75">
-        <v>9600</v>
-      </c>
-      <c r="F26" s="63">
-        <f t="shared" ref="F26:F28" si="5">G26/E26*100</f>
+      <c r="E26" s="72">
+        <v>19200</v>
+      </c>
+      <c r="F26" s="59">
+        <f>IF(E26=0, 0, G26/E26*100)</f>
         <v>0</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" ref="G26:G28" si="6">SUM(H26:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
+        <f t="shared" ref="G26:G28" si="4">SUM(H26:S26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
     </row>
     <row r="27" spans="1:19" ht="14.5">
       <c r="A27" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="75">
-        <v>340</v>
-      </c>
-      <c r="D27" s="75">
-        <v>318.78000000000003</v>
-      </c>
-      <c r="E27" s="75">
+        <v>27</v>
+      </c>
+      <c r="C27" s="72">
         <v>360</v>
       </c>
-      <c r="F27" s="63">
-        <f t="shared" si="5"/>
+      <c r="D27" s="72">
+        <v>363</v>
+      </c>
+      <c r="E27" s="72">
+        <v>800</v>
+      </c>
+      <c r="F27" s="59">
+        <f>IF(E27=0, 0, G27/E27*100)</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
     </row>
     <row r="28" spans="1:19" ht="14.5">
       <c r="A28" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="75">
-        <v>220</v>
-      </c>
-      <c r="D28" s="75">
-        <v>194.69999999999996</v>
-      </c>
-      <c r="E28" s="75">
+        <v>29</v>
+      </c>
+      <c r="C28" s="72">
         <v>230</v>
       </c>
-      <c r="F28" s="63">
-        <f t="shared" si="5"/>
+      <c r="D28" s="72">
+        <v>219.11999999999998</v>
+      </c>
+      <c r="E28" s="72">
+        <v>500</v>
+      </c>
+      <c r="F28" s="59">
+        <f>IF(E28=0, 0, G28/E28*100)</f>
         <v>0</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
     </row>
     <row r="29" spans="1:19" ht="14.5">
       <c r="A29" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="75">
-        <v>0</v>
-      </c>
-      <c r="D29" s="75">
-        <v>0</v>
-      </c>
-      <c r="E29" s="75">
-        <v>0</v>
-      </c>
-      <c r="F29" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="72">
+        <v>0</v>
+      </c>
+      <c r="D29" s="72">
+        <v>0</v>
+      </c>
+      <c r="E29" s="72">
+        <v>0</v>
+      </c>
+      <c r="F29" s="59">
+        <f>IF(E29=0, 0, G29/E29*100)</f>
+        <v>0</v>
+      </c>
       <c r="G29" s="28">
         <f>SUM(H29:S29)</f>
         <v>0</v>
@@ -5009,9 +5147,9 @@
     <row r="30" spans="1:19" ht="14.5">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="27"/>
       <c r="G30" s="31"/>
       <c r="H30" s="47"/>
@@ -5029,62 +5167,62 @@
     </row>
     <row r="31" spans="1:19" ht="14.5">
       <c r="A31" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="75">
+        <v>40</v>
+      </c>
+      <c r="C31" s="72">
         <v>400</v>
       </c>
-      <c r="D31" s="75">
-        <v>342.56999999999994</v>
-      </c>
-      <c r="E31" s="75">
-        <v>400</v>
-      </c>
-      <c r="F31" s="63">
-        <f t="shared" ref="F31:F32" si="7">G31/E31*100</f>
+      <c r="D31" s="72">
+        <v>430.87999999999994</v>
+      </c>
+      <c r="E31" s="72">
+        <v>450</v>
+      </c>
+      <c r="F31" s="59">
+        <f>IF(E31=0, 0, G31/E31*100)</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(H31:S31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
     </row>
     <row r="32" spans="1:19" ht="14.5">
       <c r="A32" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C32" s="27">
         <f>SUBTOTAL(9,C9:C31)</f>
-        <v>125674</v>
+        <v>92564</v>
       </c>
       <c r="D32" s="27">
         <f>SUBTOTAL(9,D9:D31)</f>
-        <v>73231.070000000022</v>
+        <v>61391.070000000014</v>
       </c>
       <c r="E32" s="27">
         <f>SUBTOTAL(9,E9:E31)</f>
-        <v>92564</v>
-      </c>
-      <c r="F32" s="63">
-        <f t="shared" si="7"/>
+        <v>94700</v>
+      </c>
+      <c r="F32" s="59">
+        <f>IF(E32=0, 0, G32/E32*100)</f>
         <v>0</v>
       </c>
       <c r="G32" s="27">
@@ -5092,63 +5230,63 @@
         <v>0</v>
       </c>
       <c r="H32" s="27">
-        <f t="shared" ref="H32:S32" si="8">SUBTOTAL(9,H9:H31)</f>
+        <f t="shared" ref="H32:S32" si="5">SUBTOTAL(9,H9:H31)</f>
         <v>0</v>
       </c>
       <c r="I32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="168"/>
+      <c r="A33" s="167"/>
       <c r="B33" s="165"/>
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
       <c r="E33" s="165"/>
       <c r="F33" s="165"/>
       <c r="G33" s="165"/>
-      <c r="H33" s="171"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="156"/>
       <c r="J33" s="156"/>
       <c r="K33" s="156"/>
@@ -5163,10 +5301,10 @@
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -5188,141 +5326,141 @@
     </row>
     <row r="35" spans="1:19" ht="14.5">
       <c r="A35" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="123">
+        <v>45</v>
+      </c>
+      <c r="C35" s="118">
         <v>1200</v>
       </c>
-      <c r="D35" s="123">
-        <v>1107.79</v>
-      </c>
-      <c r="E35" s="123">
-        <v>1200</v>
-      </c>
-      <c r="F35" s="66">
-        <f>G35/E35*100</f>
+      <c r="D35" s="118">
+        <v>752.27</v>
+      </c>
+      <c r="E35" s="118">
+        <v>600</v>
+      </c>
+      <c r="F35" s="65">
+        <f t="shared" ref="F35:F47" si="6">IF(E35=0, 0, G35/E35*100)</f>
         <v>0</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" ref="G35:G46" si="9">SUM(H35:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
+        <f t="shared" ref="G35:G46" si="7">SUM(H35:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
     </row>
     <row r="36" spans="1:19" ht="14.5">
       <c r="A36" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="123">
+        <v>47</v>
+      </c>
+      <c r="C36" s="118">
         <v>1000</v>
       </c>
-      <c r="D36" s="123">
-        <v>14.25</v>
-      </c>
-      <c r="E36" s="123">
+      <c r="D36" s="118">
+        <v>550.46</v>
+      </c>
+      <c r="E36" s="118">
         <v>1000</v>
       </c>
-      <c r="F36" s="66">
-        <f t="shared" ref="F36:F38" si="10">G36/E36*100</f>
+      <c r="F36" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G36" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="74"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="47"/>
-      <c r="M36" s="74"/>
+      <c r="M36" s="71"/>
       <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="74"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="74"/>
+      <c r="R36" s="71"/>
       <c r="S36" s="47"/>
     </row>
     <row r="37" spans="1:19" ht="14.5">
       <c r="A37" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="123">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="123">
-        <v>1369.2600000000002</v>
-      </c>
-      <c r="E37" s="123">
+        <v>49</v>
+      </c>
+      <c r="C37" s="118">
         <v>1500</v>
       </c>
-      <c r="F37" s="66">
-        <f t="shared" si="10"/>
+      <c r="D37" s="118">
+        <v>321.5</v>
+      </c>
+      <c r="E37" s="118">
+        <v>500</v>
+      </c>
+      <c r="F37" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G37" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="48"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="74"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
       <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="74"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
       <c r="P37" s="47"/>
-      <c r="Q37" s="74"/>
+      <c r="Q37" s="71"/>
       <c r="R37" s="47"/>
-      <c r="S37" s="74"/>
+      <c r="S37" s="71"/>
     </row>
     <row r="38" spans="1:19" ht="14.5">
       <c r="A38" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="123">
+        <v>50</v>
+      </c>
+      <c r="B38" s="124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="118">
         <v>300</v>
       </c>
-      <c r="D38" s="123">
-        <v>226</v>
-      </c>
-      <c r="E38" s="123">
+      <c r="D38" s="118">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="E38" s="118">
         <v>300</v>
       </c>
-      <c r="F38" s="66">
-        <f t="shared" si="10"/>
+      <c r="F38" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
@@ -5331,31 +5469,31 @@
       <c r="O38" s="47"/>
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
+      <c r="R38" s="71"/>
       <c r="S38" s="47"/>
     </row>
     <row r="39" spans="1:19" ht="14.5">
       <c r="A39" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="123">
-        <v>5000</v>
-      </c>
-      <c r="D39" s="123">
-        <v>5736</v>
-      </c>
-      <c r="E39" s="123">
+        <v>52</v>
+      </c>
+      <c r="C39" s="118">
         <v>6000</v>
       </c>
-      <c r="F39" s="66">
-        <f t="shared" ref="F39:F47" si="11">G39/E39*100</f>
+      <c r="D39" s="118">
+        <v>0</v>
+      </c>
+      <c r="E39" s="118">
+        <v>12500</v>
+      </c>
+      <c r="F39" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H39" s="48"/>
@@ -5369,27 +5507,30 @@
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
-      <c r="S39" s="74"/>
+      <c r="S39" s="71"/>
     </row>
     <row r="40" spans="1:19" ht="14.5">
       <c r="A40" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="123">
-        <v>300</v>
-      </c>
-      <c r="D40" s="123">
-        <v>0</v>
-      </c>
-      <c r="E40" s="123">
-        <v>0</v>
-      </c>
-      <c r="F40" s="66"/>
+        <v>54</v>
+      </c>
+      <c r="C40" s="118">
+        <v>0</v>
+      </c>
+      <c r="D40" s="118">
+        <v>0</v>
+      </c>
+      <c r="E40" s="118">
+        <v>0</v>
+      </c>
+      <c r="F40" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G40" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H40" s="48"/>
@@ -5407,23 +5548,26 @@
     </row>
     <row r="41" spans="1:19" ht="14.5">
       <c r="A41" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="123">
-        <v>300</v>
-      </c>
-      <c r="D41" s="123">
-        <v>0</v>
-      </c>
-      <c r="E41" s="123">
-        <v>0</v>
-      </c>
-      <c r="F41" s="66"/>
+        <v>56</v>
+      </c>
+      <c r="C41" s="118">
+        <v>0</v>
+      </c>
+      <c r="D41" s="118">
+        <v>0</v>
+      </c>
+      <c r="E41" s="118">
+        <v>0</v>
+      </c>
+      <c r="F41" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G41" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H41" s="48"/>
@@ -5441,26 +5585,26 @@
     </row>
     <row r="42" spans="1:19" ht="14.5">
       <c r="A42" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="123">
+        <v>58</v>
+      </c>
+      <c r="C42" s="118">
         <v>400</v>
       </c>
-      <c r="D42" s="123">
-        <v>363.86</v>
-      </c>
-      <c r="E42" s="123">
+      <c r="D42" s="118">
+        <v>371.77</v>
+      </c>
+      <c r="E42" s="118">
         <v>400</v>
       </c>
-      <c r="F42" s="66">
-        <f t="shared" si="11"/>
+      <c r="F42" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G42" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H42" s="48"/>
@@ -5474,177 +5618,177 @@
       <c r="P42" s="47"/>
       <c r="Q42" s="47"/>
       <c r="R42" s="47"/>
-      <c r="S42" s="74"/>
+      <c r="S42" s="71"/>
     </row>
     <row r="43" spans="1:19" ht="14.5">
       <c r="A43" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="123">
-        <v>38400</v>
-      </c>
-      <c r="D43" s="123">
-        <v>38400</v>
-      </c>
-      <c r="E43" s="123">
+        <v>60</v>
+      </c>
+      <c r="C43" s="118">
         <v>39360</v>
       </c>
-      <c r="F43" s="66">
-        <f t="shared" si="11"/>
+      <c r="D43" s="118">
+        <v>39360</v>
+      </c>
+      <c r="E43" s="118">
+        <v>39360</v>
+      </c>
+      <c r="F43" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G43" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
     </row>
     <row r="44" spans="1:19" ht="14.5">
       <c r="A44" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="123">
-        <v>1200</v>
-      </c>
-      <c r="D44" s="123">
-        <v>1367.5</v>
-      </c>
-      <c r="E44" s="123">
+        <v>62</v>
+      </c>
+      <c r="C44" s="118">
         <v>1500</v>
       </c>
-      <c r="F44" s="66">
-        <f t="shared" si="11"/>
+      <c r="D44" s="118">
+        <v>1291.33</v>
+      </c>
+      <c r="E44" s="118">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
     </row>
     <row r="45" spans="1:19" ht="14.5">
       <c r="A45" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="123">
+        <v>252</v>
+      </c>
+      <c r="C45" s="118">
         <v>500</v>
       </c>
-      <c r="D45" s="123">
-        <v>398.74000000000007</v>
-      </c>
-      <c r="E45" s="123">
-        <v>500</v>
-      </c>
-      <c r="F45" s="66">
-        <f t="shared" si="11"/>
+      <c r="D45" s="118">
+        <v>26.77</v>
+      </c>
+      <c r="E45" s="118">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="74"/>
+      <c r="J45" s="71"/>
       <c r="K45" s="47"/>
       <c r="L45" s="47"/>
-      <c r="M45" s="74"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="47"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
       <c r="Q45" s="47"/>
       <c r="R45" s="47"/>
       <c r="S45" s="47"/>
     </row>
     <row r="46" spans="1:19" ht="14.5">
       <c r="A46" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="123">
+        <v>245</v>
+      </c>
+      <c r="C46" s="118">
         <v>200</v>
       </c>
-      <c r="D46" s="123">
-        <v>100.36999999999999</v>
-      </c>
-      <c r="E46" s="123">
-        <v>200</v>
-      </c>
-      <c r="F46" s="66">
-        <f t="shared" si="11"/>
+      <c r="D46" s="118">
+        <v>335.77000000000004</v>
+      </c>
+      <c r="E46" s="118">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G46" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
     </row>
     <row r="47" spans="1:19" ht="14.5">
       <c r="A47" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C47" s="35">
         <f>SUBTOTAL(9,C35:C46)</f>
-        <v>50800</v>
+        <v>51960</v>
       </c>
       <c r="D47" s="35">
         <f>SUBTOTAL(9,D35:D46)</f>
-        <v>49083.770000000004</v>
+        <v>43293.469999999994</v>
       </c>
       <c r="E47" s="35">
         <f>SUBTOTAL(9,E35:E46)</f>
-        <v>51960</v>
-      </c>
-      <c r="F47" s="66">
-        <f t="shared" si="11"/>
+        <v>58660</v>
+      </c>
+      <c r="F47" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G47" s="35">
@@ -5652,63 +5796,63 @@
         <v>0</v>
       </c>
       <c r="H47" s="35">
-        <f t="shared" ref="H47:S47" si="12">SUBTOTAL(9,H35:H46)</f>
+        <f t="shared" ref="H47:S47" si="8">SUBTOTAL(9,H35:H46)</f>
         <v>0</v>
       </c>
       <c r="I47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.5">
-      <c r="A48" s="168"/>
+      <c r="A48" s="167"/>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
       <c r="D48" s="156"/>
       <c r="E48" s="156"/>
       <c r="F48" s="156"/>
       <c r="G48" s="156"/>
-      <c r="H48" s="170"/>
+      <c r="H48" s="166"/>
       <c r="I48" s="156"/>
       <c r="J48" s="156"/>
       <c r="K48" s="156"/>
@@ -5723,10 +5867,10 @@
     </row>
     <row r="49" spans="1:19" ht="14.5">
       <c r="A49" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="27"/>
@@ -5748,26 +5892,26 @@
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="75">
+        <v>68</v>
+      </c>
+      <c r="C50" s="72">
         <v>1200</v>
       </c>
       <c r="D50" s="28">
         <v>0</v>
       </c>
-      <c r="E50" s="75">
+      <c r="E50" s="72">
         <v>1200</v>
       </c>
-      <c r="F50" s="63">
-        <f t="shared" ref="F50:F57" si="13">G50/E50*100</f>
+      <c r="F50" s="59">
+        <f t="shared" ref="F50:F57" si="9">IF(E50=0, 0, G50/E50*100)</f>
         <v>0</v>
       </c>
       <c r="G50" s="28">
-        <f t="shared" ref="G50:G56" si="14">SUM(H50:S50)</f>
+        <f t="shared" ref="G50:G56" si="10">SUM(H50:S50)</f>
         <v>0</v>
       </c>
       <c r="H50" s="47"/>
@@ -5780,31 +5924,31 @@
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
       <c r="Q50" s="47"/>
-      <c r="R50" s="74"/>
+      <c r="R50" s="71"/>
       <c r="S50" s="47"/>
     </row>
     <row r="51" spans="1:19" ht="14.5">
       <c r="A51" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="75">
+        <v>70</v>
+      </c>
+      <c r="C51" s="72">
         <v>200</v>
       </c>
       <c r="D51" s="28">
-        <v>0</v>
-      </c>
-      <c r="E51" s="75">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E51" s="72">
         <v>200</v>
       </c>
-      <c r="F51" s="63">
-        <f t="shared" si="13"/>
+      <c r="F51" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G51" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H51" s="47"/>
@@ -5816,69 +5960,69 @@
       <c r="N51" s="47"/>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
+      <c r="Q51" s="71"/>
       <c r="R51" s="47"/>
       <c r="S51" s="47"/>
     </row>
     <row r="52" spans="1:19" ht="14.5">
       <c r="A52" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="75">
+        <v>72</v>
+      </c>
+      <c r="C52" s="72">
         <v>200</v>
       </c>
       <c r="D52" s="28">
-        <v>0</v>
-      </c>
-      <c r="E52" s="75">
+        <v>103.19999999999999</v>
+      </c>
+      <c r="E52" s="72">
         <v>200</v>
       </c>
-      <c r="F52" s="63">
-        <f t="shared" si="13"/>
+      <c r="F52" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G52" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
+      <c r="K52" s="71"/>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
       <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
+      <c r="O52" s="71"/>
       <c r="P52" s="47"/>
       <c r="Q52" s="47"/>
       <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
+      <c r="S52" s="71"/>
     </row>
     <row r="53" spans="1:19" ht="14.5">
       <c r="A53" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="75">
+        <v>74</v>
+      </c>
+      <c r="C53" s="72">
         <v>500</v>
       </c>
       <c r="D53" s="28">
         <v>0</v>
       </c>
-      <c r="E53" s="75">
+      <c r="E53" s="72">
         <v>500</v>
       </c>
-      <c r="F53" s="63">
-        <f t="shared" si="13"/>
+      <c r="F53" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H53" s="47"/>
@@ -5896,26 +6040,26 @@
     </row>
     <row r="54" spans="1:19" ht="14.5">
       <c r="A54" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="75">
+        <v>76</v>
+      </c>
+      <c r="C54" s="72">
         <v>400</v>
       </c>
       <c r="D54" s="28">
-        <v>320.41000000000003</v>
-      </c>
-      <c r="E54" s="75">
-        <v>400</v>
-      </c>
-      <c r="F54" s="63">
-        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="72">
+        <v>500</v>
+      </c>
+      <c r="F54" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G54" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H54" s="47"/>
@@ -5923,33 +6067,36 @@
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
-      <c r="M54" s="74"/>
+      <c r="M54" s="71"/>
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
       <c r="P54" s="47"/>
       <c r="Q54" s="47"/>
       <c r="R54" s="47"/>
-      <c r="S54" s="74"/>
+      <c r="S54" s="71"/>
     </row>
     <row r="55" spans="1:19" ht="14.5">
       <c r="A55" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="75">
+        <v>78</v>
+      </c>
+      <c r="C55" s="72">
         <v>0</v>
       </c>
       <c r="D55" s="28">
         <v>0</v>
       </c>
-      <c r="E55" s="75">
-        <v>0</v>
-      </c>
-      <c r="F55" s="63"/>
+      <c r="E55" s="72">
+        <v>200</v>
+      </c>
+      <c r="F55" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="G55" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H55" s="47"/>
@@ -5967,26 +6114,26 @@
     </row>
     <row r="56" spans="1:19" ht="14.5">
       <c r="A56" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="75">
+        <v>80</v>
+      </c>
+      <c r="C56" s="72">
         <v>100</v>
       </c>
       <c r="D56" s="28">
         <v>0</v>
       </c>
-      <c r="E56" s="75">
-        <v>100</v>
-      </c>
-      <c r="F56" s="63">
-        <f t="shared" si="13"/>
+      <c r="E56" s="72">
+        <v>200</v>
+      </c>
+      <c r="F56" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G56" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H56" s="47"/>
@@ -6000,93 +6147,93 @@
       <c r="P56" s="47"/>
       <c r="Q56" s="47"/>
       <c r="R56" s="47"/>
-      <c r="S56" s="74"/>
+      <c r="S56" s="71"/>
     </row>
     <row r="57" spans="1:19" ht="14.5">
       <c r="A57" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C57" s="27">
-        <f>SUBTOTAL(9,C50:C56)</f>
+        <f t="shared" ref="C57" si="11">SUBTOTAL(9,C50:C56)</f>
         <v>2600</v>
       </c>
       <c r="D57" s="27">
-        <f t="shared" ref="D57:S57" si="15">SUBTOTAL(9,D50:D56)</f>
-        <v>320.41000000000003</v>
+        <f t="shared" ref="D57:S57" si="12">SUBTOTAL(9,D50:D56)</f>
+        <v>176.40999999999997</v>
       </c>
       <c r="E57" s="27">
-        <f t="shared" si="15"/>
-        <v>2600</v>
-      </c>
-      <c r="F57" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="F57" s="59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S57" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="168"/>
+      <c r="A58" s="167"/>
       <c r="B58" s="156"/>
       <c r="C58" s="156"/>
       <c r="D58" s="156"/>
       <c r="E58" s="156"/>
       <c r="F58" s="156"/>
       <c r="G58" s="156"/>
-      <c r="H58" s="170"/>
+      <c r="H58" s="166"/>
       <c r="I58" s="156"/>
       <c r="J58" s="156"/>
       <c r="K58" s="156"/>
@@ -6101,10 +6248,10 @@
     </row>
     <row r="59" spans="1:19" ht="14.5">
       <c r="A59" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="35"/>
@@ -6126,26 +6273,26 @@
     </row>
     <row r="60" spans="1:19" ht="14.5">
       <c r="A60" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="123">
+        <v>84</v>
+      </c>
+      <c r="C60" s="118">
         <v>300</v>
       </c>
-      <c r="D60" s="123">
-        <v>0</v>
-      </c>
-      <c r="E60" s="123">
+      <c r="D60" s="118">
+        <v>0</v>
+      </c>
+      <c r="E60" s="118">
         <v>300</v>
       </c>
-      <c r="F60" s="66">
-        <f t="shared" ref="F60:F64" si="16">G60/E60*100</f>
+      <c r="F60" s="65">
+        <f t="shared" ref="F60:F64" si="13">IF(E60=0, 0, G60/E60*100)</f>
         <v>0</v>
       </c>
       <c r="G60" s="34">
-        <f t="shared" ref="G60:G63" si="17">SUM(H60:S60)</f>
+        <f t="shared" ref="G60:G63" si="14">SUM(H60:S60)</f>
         <v>0</v>
       </c>
       <c r="H60" s="47"/>
@@ -6163,69 +6310,69 @@
     </row>
     <row r="61" spans="1:19" ht="14.5">
       <c r="A61" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="123">
+        <v>86</v>
+      </c>
+      <c r="C61" s="118">
         <v>200</v>
       </c>
-      <c r="D61" s="123">
-        <v>55.79</v>
-      </c>
-      <c r="E61" s="123">
+      <c r="D61" s="118">
+        <v>164.23000000000002</v>
+      </c>
+      <c r="E61" s="118">
         <v>200</v>
       </c>
-      <c r="F61" s="66">
-        <f t="shared" si="16"/>
+      <c r="F61" s="65">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G61" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
       <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
+      <c r="K61" s="71"/>
       <c r="L61" s="47"/>
       <c r="M61" s="47"/>
       <c r="N61" s="47"/>
       <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
+      <c r="P61" s="71"/>
       <c r="Q61" s="47"/>
       <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
+      <c r="S61" s="71"/>
     </row>
     <row r="62" spans="1:19" ht="14.5">
       <c r="A62" s="36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="123">
+        <v>88</v>
+      </c>
+      <c r="C62" s="118">
         <v>300</v>
       </c>
-      <c r="D62" s="123">
-        <v>290</v>
-      </c>
-      <c r="E62" s="123">
+      <c r="D62" s="118">
+        <v>270</v>
+      </c>
+      <c r="E62" s="118">
         <v>300</v>
       </c>
-      <c r="F62" s="66">
-        <f t="shared" si="16"/>
+      <c r="F62" s="65">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G62" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
       <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
+      <c r="K62" s="71"/>
       <c r="L62" s="47"/>
       <c r="M62" s="47"/>
       <c r="N62" s="47"/>
@@ -6233,30 +6380,30 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="47"/>
       <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
+      <c r="S62" s="71"/>
     </row>
     <row r="63" spans="1:19" ht="14.5">
       <c r="A63" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="123">
+        <v>90</v>
+      </c>
+      <c r="C63" s="118">
         <v>1300</v>
       </c>
-      <c r="D63" s="123">
-        <v>318.95999999999998</v>
-      </c>
-      <c r="E63" s="123">
+      <c r="D63" s="118">
+        <v>900.32</v>
+      </c>
+      <c r="E63" s="118">
         <v>1300</v>
       </c>
-      <c r="F63" s="66">
-        <f t="shared" si="16"/>
+      <c r="F63" s="65">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G63" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H63" s="47"/>
@@ -6270,93 +6417,93 @@
       <c r="P63" s="47"/>
       <c r="Q63" s="47"/>
       <c r="R63" s="47"/>
-      <c r="S63" s="74"/>
+      <c r="S63" s="71"/>
     </row>
     <row r="64" spans="1:19" ht="14.5">
       <c r="A64" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C64" s="35">
         <f>SUBTOTAL(9,C60:C63)</f>
         <v>2100</v>
       </c>
       <c r="D64" s="35">
-        <f t="shared" ref="D64:S64" si="18">SUBTOTAL(9,D60:D63)</f>
-        <v>664.75</v>
+        <f t="shared" ref="D64:S64" si="15">SUBTOTAL(9,D60:D63)</f>
+        <v>1334.5500000000002</v>
       </c>
       <c r="E64" s="35">
-        <f t="shared" si="18"/>
+        <f>SUBTOTAL(9,E60:E63)</f>
         <v>2100</v>
       </c>
-      <c r="F64" s="66">
-        <f t="shared" si="16"/>
+      <c r="F64" s="65">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="14.5">
-      <c r="A65" s="168"/>
+      <c r="A65" s="167"/>
       <c r="B65" s="156"/>
       <c r="C65" s="156"/>
       <c r="D65" s="156"/>
       <c r="E65" s="156"/>
       <c r="F65" s="156"/>
       <c r="G65" s="156"/>
-      <c r="H65" s="170"/>
+      <c r="H65" s="166"/>
       <c r="I65" s="156"/>
       <c r="J65" s="156"/>
       <c r="K65" s="156"/>
@@ -6371,10 +6518,10 @@
     </row>
     <row r="66" spans="1:19" ht="14.5">
       <c r="A66" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="27"/>
@@ -6396,26 +6543,26 @@
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="75">
+        <v>94</v>
+      </c>
+      <c r="C67" s="72">
         <v>200</v>
       </c>
-      <c r="D67" s="75">
-        <v>0</v>
-      </c>
-      <c r="E67" s="75">
+      <c r="D67" s="72">
+        <v>0</v>
+      </c>
+      <c r="E67" s="72">
         <v>200</v>
       </c>
-      <c r="F67" s="63">
-        <f t="shared" ref="F67:F71" si="19">G67/E67*100</f>
+      <c r="F67" s="59">
+        <f t="shared" ref="F67:F71" si="16">IF(E67=0, 0, G67/E67*100)</f>
         <v>0</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" ref="G67:G70" si="20">SUM(H67:S67)</f>
+        <f t="shared" ref="G67:G70" si="17">SUM(H67:S67)</f>
         <v>0</v>
       </c>
       <c r="H67" s="47"/>
@@ -6433,30 +6580,30 @@
     </row>
     <row r="68" spans="1:19" ht="14.5">
       <c r="A68" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="75">
+        <v>96</v>
+      </c>
+      <c r="C68" s="72">
         <v>300</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="72">
         <v>277</v>
       </c>
-      <c r="E68" s="75">
+      <c r="E68" s="72">
         <v>300</v>
       </c>
-      <c r="F68" s="63">
-        <f t="shared" si="19"/>
+      <c r="F68" s="59">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G68" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="47"/>
       <c r="K68" s="47"/>
       <c r="L68" s="47"/>
@@ -6466,30 +6613,30 @@
       <c r="P68" s="47"/>
       <c r="Q68" s="47"/>
       <c r="R68" s="47"/>
-      <c r="S68" s="74"/>
+      <c r="S68" s="71"/>
     </row>
     <row r="69" spans="1:19" ht="14.5">
       <c r="A69" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="75">
+        <v>98</v>
+      </c>
+      <c r="C69" s="72">
         <v>100</v>
       </c>
-      <c r="D69" s="75">
-        <v>0</v>
-      </c>
-      <c r="E69" s="75">
-        <v>100</v>
-      </c>
-      <c r="F69" s="63">
-        <f t="shared" si="19"/>
+      <c r="D69" s="72">
+        <v>0</v>
+      </c>
+      <c r="E69" s="72">
+        <v>600</v>
+      </c>
+      <c r="F69" s="59">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G69" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H69" s="47"/>
@@ -6507,28 +6654,31 @@
     </row>
     <row r="70" spans="1:19" ht="14.5">
       <c r="A70" s="39" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="75">
-        <v>0</v>
-      </c>
-      <c r="D70" s="75">
-        <v>0</v>
-      </c>
-      <c r="E70" s="75">
-        <v>0</v>
-      </c>
-      <c r="F70" s="63"/>
+        <v>99</v>
+      </c>
+      <c r="C70" s="72">
+        <v>0</v>
+      </c>
+      <c r="D70" s="72">
+        <v>0</v>
+      </c>
+      <c r="E70" s="72">
+        <v>0</v>
+      </c>
+      <c r="F70" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="G70" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H70" s="47"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
       <c r="K70" s="47"/>
       <c r="L70" s="47"/>
       <c r="M70" s="47"/>
@@ -6541,89 +6691,89 @@
     </row>
     <row r="71" spans="1:19" ht="14.5">
       <c r="A71" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C71" s="27">
         <f>SUBTOTAL(9,C67:C70)</f>
         <v>600</v>
       </c>
       <c r="D71" s="27">
-        <f t="shared" ref="D71:S71" si="21">SUBTOTAL(9,D67:D70)</f>
+        <f t="shared" ref="D71:S71" si="18">SUBTOTAL(9,D67:D70)</f>
         <v>277</v>
       </c>
       <c r="E71" s="27">
-        <f t="shared" si="21"/>
-        <v>600</v>
-      </c>
-      <c r="F71" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
+        <v>1100</v>
+      </c>
+      <c r="F71" s="59">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S71" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="168"/>
+      <c r="A72" s="167"/>
       <c r="B72" s="156"/>
       <c r="C72" s="156"/>
       <c r="D72" s="156"/>
       <c r="E72" s="156"/>
       <c r="F72" s="156"/>
       <c r="G72" s="156"/>
-      <c r="H72" s="170"/>
+      <c r="H72" s="166"/>
       <c r="I72" s="156"/>
       <c r="J72" s="156"/>
       <c r="K72" s="156"/>
@@ -6638,10 +6788,10 @@
     </row>
     <row r="73" spans="1:19" ht="14.5">
       <c r="A73" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C73" s="34"/>
       <c r="D73" s="35"/>
@@ -6663,32 +6813,32 @@
     </row>
     <row r="74" spans="1:19" ht="14.5">
       <c r="A74" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C74" s="34">
         <v>500</v>
       </c>
       <c r="D74" s="34">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="E74" s="34">
         <v>500</v>
       </c>
-      <c r="F74" s="66">
-        <f t="shared" ref="F74:F79" si="22">G74/E74*100</f>
+      <c r="F74" s="65">
+        <f t="shared" ref="F74:F79" si="19">IF(E74=0, 0, G74/E74*100)</f>
         <v>0</v>
       </c>
       <c r="G74" s="34">
-        <f t="shared" ref="G74:G78" si="23">SUM(H74:S74)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="74"/>
+        <f t="shared" ref="G74:G78" si="20">SUM(H74:S74)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="71"/>
       <c r="I74" s="47"/>
       <c r="J74" s="47"/>
-      <c r="K74" s="74"/>
+      <c r="K74" s="71"/>
       <c r="L74" s="47"/>
       <c r="M74" s="47"/>
       <c r="N74" s="47"/>
@@ -6700,10 +6850,10 @@
     </row>
     <row r="75" spans="1:19" ht="14.5">
       <c r="A75" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C75" s="34">
         <v>300</v>
@@ -6714,12 +6864,12 @@
       <c r="E75" s="34">
         <v>300</v>
       </c>
-      <c r="F75" s="66">
-        <f t="shared" si="22"/>
+      <c r="F75" s="65">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G75" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H75" s="48"/>
@@ -6733,34 +6883,34 @@
       <c r="P75" s="47"/>
       <c r="Q75" s="47"/>
       <c r="R75" s="47"/>
-      <c r="S75" s="74"/>
+      <c r="S75" s="71"/>
     </row>
     <row r="76" spans="1:19" ht="14.5">
       <c r="A76" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="78" t="s">
-        <v>237</v>
+        <v>106</v>
+      </c>
+      <c r="B76" s="124" t="s">
+        <v>228</v>
       </c>
       <c r="C76" s="34">
         <v>300</v>
       </c>
       <c r="D76" s="34">
-        <v>229.70999999999998</v>
+        <v>267.89</v>
       </c>
       <c r="E76" s="34">
         <v>300</v>
       </c>
-      <c r="F76" s="66">
-        <f t="shared" si="22"/>
+      <c r="F76" s="65">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G76" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H76" s="48"/>
-      <c r="I76" s="74"/>
+      <c r="I76" s="71"/>
       <c r="J76" s="47"/>
       <c r="K76" s="47"/>
       <c r="L76" s="47"/>
@@ -6774,13 +6924,13 @@
     </row>
     <row r="77" spans="1:19" ht="14.5">
       <c r="A77" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C77" s="34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D77" s="34">
         <v>0</v>
@@ -6788,9 +6938,12 @@
       <c r="E77" s="34">
         <v>0</v>
       </c>
-      <c r="F77" s="66"/>
+      <c r="F77" s="65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="G77" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H77" s="48"/>
@@ -6808,13 +6961,13 @@
     </row>
     <row r="78" spans="1:19" ht="14.5">
       <c r="A78" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>238</v>
+        <v>109</v>
+      </c>
+      <c r="B78" s="124" t="s">
+        <v>229</v>
       </c>
       <c r="C78" s="34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D78" s="34">
         <v>0</v>
@@ -6822,9 +6975,12 @@
       <c r="E78" s="34">
         <v>0</v>
       </c>
-      <c r="F78" s="66"/>
+      <c r="F78" s="65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="G78" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H78" s="48"/>
@@ -6842,89 +6998,89 @@
     </row>
     <row r="79" spans="1:19" ht="14.5">
       <c r="A79" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C79" s="35">
         <f>SUBTOTAL(9,C74:C78)</f>
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="D79" s="35">
-        <f t="shared" ref="D79:S79" si="24">SUBTOTAL(9,D74:D78)</f>
-        <v>455.71</v>
+        <f t="shared" ref="D79:S79" si="21">SUBTOTAL(9,D74:D78)</f>
+        <v>267.89</v>
       </c>
       <c r="E79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>1100</v>
       </c>
-      <c r="F79" s="66">
-        <f t="shared" si="22"/>
+      <c r="F79" s="65">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S79" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="14.5">
-      <c r="A80" s="168"/>
+      <c r="A80" s="167"/>
       <c r="B80" s="165"/>
       <c r="C80" s="165"/>
       <c r="D80" s="165"/>
       <c r="E80" s="165"/>
       <c r="F80" s="165"/>
       <c r="G80" s="165"/>
-      <c r="H80" s="171"/>
+      <c r="H80" s="169"/>
       <c r="I80" s="156"/>
       <c r="J80" s="156"/>
       <c r="K80" s="156"/>
@@ -6939,10 +7095,10 @@
     </row>
     <row r="81" spans="1:19" ht="14.5">
       <c r="A81" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="27"/>
@@ -6964,26 +7120,26 @@
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="75">
+        <v>113</v>
+      </c>
+      <c r="C82" s="72">
         <v>1500</v>
       </c>
       <c r="D82" s="28">
         <v>0</v>
       </c>
-      <c r="E82" s="75">
+      <c r="E82" s="72">
         <v>1500</v>
       </c>
-      <c r="F82" s="124">
-        <f t="shared" ref="F82" si="25">G82/E82*100</f>
+      <c r="F82" s="59">
+        <f t="shared" ref="F82:F93" si="22">IF(E82=0, 0, G82/E82*100)</f>
         <v>0</v>
       </c>
       <c r="G82" s="28">
-        <f t="shared" ref="G82:G92" si="26">SUM(H82:S82)</f>
+        <f t="shared" ref="G82:G92" si="23">SUM(H82:S82)</f>
         <v>0</v>
       </c>
       <c r="H82" s="48"/>
@@ -7001,23 +7157,26 @@
     </row>
     <row r="83" spans="1:19" ht="14.5">
       <c r="A83" s="39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="75">
+        <v>115</v>
+      </c>
+      <c r="C83" s="72">
         <v>0</v>
       </c>
       <c r="D83" s="28">
         <v>0</v>
       </c>
-      <c r="E83" s="75">
-        <v>0</v>
-      </c>
-      <c r="F83" s="124"/>
+      <c r="E83" s="72">
+        <v>0</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G83" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H83" s="48"/>
@@ -7035,23 +7194,26 @@
     </row>
     <row r="84" spans="1:19" ht="14.5">
       <c r="A84" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" s="75">
+        <v>163</v>
+      </c>
+      <c r="C84" s="72">
         <v>0</v>
       </c>
       <c r="D84" s="28">
         <v>0</v>
       </c>
-      <c r="E84" s="75">
-        <v>0</v>
-      </c>
-      <c r="F84" s="75"/>
+      <c r="E84" s="72">
+        <v>100</v>
+      </c>
+      <c r="F84" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G84" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H84" s="48"/>
@@ -7069,72 +7231,72 @@
     </row>
     <row r="85" spans="1:19" ht="14.5">
       <c r="A85" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="75">
+        <v>118</v>
+      </c>
+      <c r="C85" s="72">
         <v>4000</v>
       </c>
       <c r="D85" s="28">
-        <v>796.79000000000008</v>
-      </c>
-      <c r="E85" s="75">
-        <v>4000</v>
-      </c>
-      <c r="F85" s="124">
-        <f t="shared" ref="F85:F89" si="27">G85/E85*100</f>
+        <v>2767.59</v>
+      </c>
+      <c r="E85" s="72">
+        <v>3000</v>
+      </c>
+      <c r="F85" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G85" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H85" s="48"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="74"/>
-      <c r="K85" s="74"/>
-      <c r="L85" s="74"/>
-      <c r="M85" s="74"/>
-      <c r="N85" s="74"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="74"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="47"/>
-      <c r="S85" s="74"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
     </row>
     <row r="86" spans="1:19" ht="14.5">
       <c r="A86" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="75">
+        <v>120</v>
+      </c>
+      <c r="C86" s="72">
         <v>1000</v>
       </c>
       <c r="D86" s="28">
-        <v>0</v>
-      </c>
-      <c r="E86" s="75">
+        <v>565.87</v>
+      </c>
+      <c r="E86" s="72">
         <v>1000</v>
       </c>
-      <c r="F86" s="124">
-        <f t="shared" si="27"/>
+      <c r="F86" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G86" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H86" s="48"/>
       <c r="I86" s="48"/>
       <c r="J86" s="47"/>
       <c r="K86" s="47"/>
-      <c r="L86" s="74"/>
+      <c r="L86" s="71"/>
       <c r="M86" s="47"/>
-      <c r="N86" s="74"/>
+      <c r="N86" s="71"/>
       <c r="O86" s="47"/>
       <c r="P86" s="47"/>
       <c r="Q86" s="47"/>
@@ -7143,26 +7305,26 @@
     </row>
     <row r="87" spans="1:19" ht="14.5">
       <c r="A87" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="75">
+        <v>122</v>
+      </c>
+      <c r="C87" s="72">
         <v>200</v>
       </c>
       <c r="D87" s="28">
         <v>0</v>
       </c>
-      <c r="E87" s="75">
+      <c r="E87" s="72">
         <v>200</v>
       </c>
-      <c r="F87" s="124">
-        <f t="shared" si="27"/>
+      <c r="F87" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G87" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H87" s="48"/>
@@ -7180,63 +7342,63 @@
     </row>
     <row r="88" spans="1:19" ht="14.5">
       <c r="A88" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="75">
+        <v>124</v>
+      </c>
+      <c r="C88" s="72">
         <v>800</v>
       </c>
       <c r="D88" s="28">
-        <v>704.32</v>
-      </c>
-      <c r="E88" s="75">
+        <v>709.29</v>
+      </c>
+      <c r="E88" s="72">
         <v>800</v>
       </c>
-      <c r="F88" s="124">
-        <f t="shared" si="27"/>
+      <c r="F88" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G88" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H88" s="48"/>
       <c r="I88" s="48"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="71"/>
       <c r="M88" s="47"/>
       <c r="N88" s="47"/>
       <c r="O88" s="47"/>
       <c r="P88" s="47"/>
       <c r="Q88" s="47"/>
       <c r="R88" s="47"/>
-      <c r="S88" s="47"/>
+      <c r="S88" s="71"/>
     </row>
     <row r="89" spans="1:19" ht="14.5">
       <c r="A89" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="75">
+        <v>164</v>
+      </c>
+      <c r="C89" s="72">
         <v>300</v>
       </c>
       <c r="D89" s="28">
         <v>0</v>
       </c>
-      <c r="E89" s="75">
+      <c r="E89" s="72">
         <v>300</v>
       </c>
-      <c r="F89" s="124">
-        <f t="shared" si="27"/>
+      <c r="F89" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G89" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H89" s="48"/>
@@ -7250,27 +7412,30 @@
       <c r="P89" s="47"/>
       <c r="Q89" s="47"/>
       <c r="R89" s="47"/>
-      <c r="S89" s="74"/>
+      <c r="S89" s="71"/>
     </row>
     <row r="90" spans="1:19" ht="14.5">
       <c r="A90" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" s="75">
-        <v>4000</v>
+        <v>127</v>
+      </c>
+      <c r="C90" s="72">
+        <v>0</v>
       </c>
       <c r="D90" s="28">
-        <v>3330.2200000000003</v>
-      </c>
-      <c r="E90" s="75">
-        <v>0</v>
-      </c>
-      <c r="F90" s="124"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="72">
+        <v>100</v>
+      </c>
+      <c r="F90" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G90" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H90" s="48"/>
@@ -7280,31 +7445,34 @@
       <c r="L90" s="47"/>
       <c r="M90" s="47"/>
       <c r="N90" s="47"/>
-      <c r="O90" s="74"/>
+      <c r="O90" s="71"/>
       <c r="P90" s="47"/>
-      <c r="Q90" s="74"/>
+      <c r="Q90" s="71"/>
       <c r="R90" s="47"/>
       <c r="S90" s="47"/>
     </row>
     <row r="91" spans="1:19" ht="14.5">
       <c r="A91" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="75">
+        <v>129</v>
+      </c>
+      <c r="C91" s="72">
         <v>0</v>
       </c>
       <c r="D91" s="28">
         <v>0</v>
       </c>
-      <c r="E91" s="75">
-        <v>0</v>
-      </c>
-      <c r="F91" s="124"/>
+      <c r="E91" s="72">
+        <v>0</v>
+      </c>
+      <c r="F91" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G91" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H91" s="47"/>
@@ -7322,28 +7490,31 @@
     </row>
     <row r="92" spans="1:19" ht="14.5">
       <c r="A92" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="75">
+        <v>165</v>
+      </c>
+      <c r="C92" s="72">
         <v>0</v>
       </c>
       <c r="D92" s="28">
         <v>0</v>
       </c>
-      <c r="E92" s="75">
-        <v>0</v>
-      </c>
-      <c r="F92" s="124"/>
+      <c r="E92" s="72">
+        <v>0</v>
+      </c>
+      <c r="F92" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G92" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
-      <c r="J92" s="74"/>
+      <c r="J92" s="71"/>
       <c r="K92" s="47"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
@@ -7356,89 +7527,89 @@
     </row>
     <row r="93" spans="1:19" ht="14.5">
       <c r="A93" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C93" s="27">
         <f>SUBTOTAL(9,C82:C92)</f>
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="D93" s="27">
-        <f t="shared" ref="D93:S93" si="28">SUBTOTAL(9,D82:D92)</f>
-        <v>4831.33</v>
+        <f t="shared" ref="D93:S93" si="24">SUBTOTAL(9,D82:D92)</f>
+        <v>4042.75</v>
       </c>
       <c r="E93" s="27">
-        <f t="shared" si="28"/>
-        <v>7800</v>
-      </c>
-      <c r="F93" s="63">
-        <f t="shared" ref="F93" si="29">G93/E93*100</f>
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="F93" s="59">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S93" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="168"/>
+      <c r="A94" s="167"/>
       <c r="B94" s="165"/>
       <c r="C94" s="165"/>
       <c r="D94" s="165"/>
       <c r="E94" s="165"/>
       <c r="F94" s="165"/>
       <c r="G94" s="165"/>
-      <c r="H94" s="170"/>
+      <c r="H94" s="166"/>
       <c r="I94" s="156"/>
       <c r="J94" s="156"/>
       <c r="K94" s="156"/>
@@ -7453,10 +7624,10 @@
     </row>
     <row r="95" spans="1:19" ht="14.5">
       <c r="A95" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C95" s="34"/>
       <c r="D95" s="35"/>
@@ -7478,26 +7649,26 @@
     </row>
     <row r="96" spans="1:19" ht="14.5">
       <c r="A96" s="36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="123">
+        <v>134</v>
+      </c>
+      <c r="C96" s="118">
         <v>600</v>
       </c>
       <c r="D96" s="34">
-        <v>458.54999999999995</v>
-      </c>
-      <c r="E96" s="123">
+        <v>34.01</v>
+      </c>
+      <c r="E96" s="118">
         <v>600</v>
       </c>
-      <c r="F96" s="66">
-        <f t="shared" ref="F96:F101" si="30">G96/E96*100</f>
+      <c r="F96" s="65">
+        <f t="shared" ref="F96:F101" si="25">IF(E96=0, 0, G96/E96*100)</f>
         <v>0</v>
       </c>
       <c r="G96" s="34">
-        <f t="shared" ref="G96:G100" si="31">SUM(H96:S96)</f>
+        <f t="shared" ref="G96:G100" si="26">SUM(H96:S96)</f>
         <v>0</v>
       </c>
       <c r="H96" s="47"/>
@@ -7509,106 +7680,106 @@
       <c r="N96" s="47"/>
       <c r="O96" s="47"/>
       <c r="P96" s="47"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="74"/>
-      <c r="S96" s="47"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
     </row>
     <row r="97" spans="1:19" ht="14.5">
       <c r="A97" s="36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="123">
-        <v>1500</v>
+        <v>136</v>
+      </c>
+      <c r="C97" s="118">
+        <v>3000</v>
       </c>
       <c r="D97" s="34">
-        <v>1970</v>
-      </c>
-      <c r="E97" s="123">
+        <v>2160.21</v>
+      </c>
+      <c r="E97" s="118">
         <v>3000</v>
       </c>
-      <c r="F97" s="66">
-        <f t="shared" si="30"/>
+      <c r="F97" s="65">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G97" s="34">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="74"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="71"/>
       <c r="I97" s="47"/>
       <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
+      <c r="K97" s="71"/>
       <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
+      <c r="M97" s="71"/>
       <c r="N97" s="47"/>
       <c r="O97" s="47"/>
-      <c r="P97" s="74"/>
+      <c r="P97" s="71"/>
       <c r="Q97" s="47"/>
-      <c r="R97" s="47"/>
+      <c r="R97" s="71"/>
       <c r="S97" s="47"/>
     </row>
     <row r="98" spans="1:19" ht="14.5">
       <c r="A98" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="123">
-        <v>6000</v>
+        <v>138</v>
+      </c>
+      <c r="C98" s="118">
+        <v>5000</v>
       </c>
       <c r="D98" s="34">
-        <v>3415.2200000000003</v>
-      </c>
-      <c r="E98" s="123">
+        <v>5321.55</v>
+      </c>
+      <c r="E98" s="118">
         <v>5000</v>
       </c>
-      <c r="F98" s="66">
-        <f t="shared" si="30"/>
+      <c r="F98" s="65">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G98" s="34">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
       <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="47"/>
-      <c r="S98" s="74"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
     </row>
     <row r="99" spans="1:19" ht="14.5">
       <c r="A99" s="36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="123">
+        <v>140</v>
+      </c>
+      <c r="C99" s="118">
         <v>200</v>
       </c>
       <c r="D99" s="34">
         <v>0</v>
       </c>
-      <c r="E99" s="123">
+      <c r="E99" s="118">
         <v>200</v>
       </c>
-      <c r="F99" s="66">
-        <f t="shared" si="30"/>
+      <c r="F99" s="65">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G99" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H99" s="47"/>
@@ -7626,26 +7797,26 @@
     </row>
     <row r="100" spans="1:19" ht="14.5">
       <c r="A100" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="123">
+        <v>142</v>
+      </c>
+      <c r="C100" s="118">
         <v>200</v>
       </c>
       <c r="D100" s="34">
         <v>0</v>
       </c>
-      <c r="E100" s="123">
+      <c r="E100" s="118">
         <v>200</v>
       </c>
-      <c r="F100" s="66">
-        <f t="shared" si="30"/>
+      <c r="F100" s="65">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G100" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H100" s="47"/>
@@ -7663,89 +7834,89 @@
     </row>
     <row r="101" spans="1:19" ht="14.5">
       <c r="A101" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C101" s="35">
         <f>SUBTOTAL(9,C96:C100)</f>
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="D101" s="35">
-        <f t="shared" ref="D101:S101" si="32">SUBTOTAL(9,D96:D100)</f>
-        <v>5843.77</v>
+        <f t="shared" ref="D101:S101" si="27">SUBTOTAL(9,D96:D100)</f>
+        <v>7515.77</v>
       </c>
       <c r="E101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>9000</v>
       </c>
-      <c r="F101" s="66">
-        <f t="shared" si="30"/>
+      <c r="F101" s="65">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S101" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.5">
-      <c r="A102" s="168"/>
+      <c r="A102" s="167"/>
       <c r="B102" s="165"/>
       <c r="C102" s="165"/>
       <c r="D102" s="165"/>
       <c r="E102" s="165"/>
       <c r="F102" s="165"/>
       <c r="G102" s="165"/>
-      <c r="H102" s="170"/>
+      <c r="H102" s="166"/>
       <c r="I102" s="156"/>
       <c r="J102" s="156"/>
       <c r="K102" s="156"/>
@@ -7760,10 +7931,10 @@
     </row>
     <row r="103" spans="1:19" ht="14.5">
       <c r="A103" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C103" s="28"/>
       <c r="D103" s="41"/>
@@ -7785,126 +7956,126 @@
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C104" s="28">
         <v>1000</v>
       </c>
       <c r="D104" s="28">
-        <v>0</v>
+        <v>961.41</v>
       </c>
       <c r="E104" s="28">
         <v>1000</v>
       </c>
-      <c r="F104" s="63">
-        <f t="shared" ref="F104:F105" si="33">G104/E104*100</f>
+      <c r="F104" s="59">
+        <f t="shared" ref="F104:F105" si="28">IF(E104=0, 0, G104/E104*100)</f>
         <v>0</v>
       </c>
       <c r="G104" s="28">
-        <f t="shared" ref="G104" si="34">SUM(H104:S104)</f>
+        <f t="shared" ref="G104" si="29">SUM(H104:S104)</f>
         <v>0</v>
       </c>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="71"/>
       <c r="K104" s="47"/>
-      <c r="L104" s="47"/>
+      <c r="L104" s="71"/>
       <c r="M104" s="47"/>
       <c r="N104" s="47"/>
       <c r="O104" s="47"/>
       <c r="P104" s="47"/>
       <c r="Q104" s="47"/>
       <c r="R104" s="47"/>
-      <c r="S104" s="74"/>
+      <c r="S104" s="71"/>
     </row>
     <row r="105" spans="1:19" ht="14.5">
       <c r="A105" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C105" s="27">
         <f>SUBTOTAL(9,C104)</f>
         <v>1000</v>
       </c>
       <c r="D105" s="27">
-        <f t="shared" ref="D105:S105" si="35">SUBTOTAL(9,D104)</f>
-        <v>0</v>
+        <f t="shared" ref="D105:S105" si="30">SUBTOTAL(9,D104)</f>
+        <v>961.41</v>
       </c>
       <c r="E105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
-      <c r="F105" s="63">
-        <f t="shared" si="33"/>
+      <c r="F105" s="59">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S105" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="168"/>
+      <c r="A106" s="167"/>
       <c r="B106" s="165"/>
       <c r="C106" s="165"/>
       <c r="D106" s="165"/>
       <c r="E106" s="165"/>
       <c r="F106" s="165"/>
       <c r="G106" s="165"/>
-      <c r="H106" s="170"/>
+      <c r="H106" s="166"/>
       <c r="I106" s="156"/>
       <c r="J106" s="156"/>
       <c r="K106" s="156"/>
@@ -7919,10 +8090,10 @@
     </row>
     <row r="107" spans="1:19" ht="14.5">
       <c r="A107" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
@@ -7944,119 +8115,119 @@
     </row>
     <row r="108" spans="1:19" ht="14.5">
       <c r="A108" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C108" s="42">
-        <v>3443.44</v>
+        <v>7321.26</v>
       </c>
       <c r="D108" s="34">
-        <v>678</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="E108" s="42">
-        <v>7321.26</v>
-      </c>
-      <c r="F108" s="66">
-        <f t="shared" ref="F108:F109" si="36">G108/E108*100</f>
+        <v>2690.359999999986</v>
+      </c>
+      <c r="F108" s="65">
+        <f t="shared" ref="F108:F109" si="31">IF(E108=0, 0, G108/E108*100)</f>
         <v>0</v>
       </c>
       <c r="G108" s="34">
-        <f t="shared" ref="G108" si="37">SUM(H108:S108)</f>
+        <f t="shared" ref="G108" si="32">SUM(H108:S108)</f>
         <v>0</v>
       </c>
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
-      <c r="J108" s="74"/>
+      <c r="J108" s="71"/>
       <c r="K108" s="47"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="47"/>
-      <c r="N108" s="47"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
       <c r="O108" s="47"/>
       <c r="P108" s="47"/>
       <c r="Q108" s="47"/>
-      <c r="R108" s="47"/>
+      <c r="R108" s="71"/>
       <c r="S108" s="47"/>
     </row>
     <row r="109" spans="1:19" ht="14.5">
       <c r="A109" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C109" s="35">
         <f>SUBTOTAL(9,C108)</f>
-        <v>3443.44</v>
+        <v>7321.26</v>
       </c>
       <c r="D109" s="35">
-        <f t="shared" ref="D109:S109" si="38">SUBTOTAL(9,D108)</f>
-        <v>678</v>
+        <f t="shared" ref="D109:S109" si="33">SUBTOTAL(9,D108)</f>
+        <v>1170.0899999999999</v>
       </c>
       <c r="E109" s="35">
-        <f t="shared" si="38"/>
-        <v>7321.26</v>
-      </c>
-      <c r="F109" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
+        <v>2690.359999999986</v>
+      </c>
+      <c r="F109" s="65">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S109" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="14.5">
-      <c r="A110" s="168"/>
+      <c r="A110" s="167"/>
       <c r="B110" s="165"/>
       <c r="C110" s="165"/>
       <c r="D110" s="165"/>
@@ -8079,21 +8250,21 @@
     <row r="111" spans="1:19" ht="14.5">
       <c r="A111" s="43"/>
       <c r="B111" s="43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C111" s="44">
         <f>SUBTOTAL(9,C9:C109)</f>
-        <v>208617.44</v>
+        <v>176045.26</v>
       </c>
       <c r="D111" s="44">
         <f>SUBTOTAL(9,D9:D109)</f>
-        <v>135385.81000000003</v>
+        <v>120430.41000000002</v>
       </c>
       <c r="E111" s="44">
         <f>SUBTOTAL(9,E9:E109)</f>
-        <v>176045.26</v>
-      </c>
-      <c r="F111" s="65">
+        <v>180350.36</v>
+      </c>
+      <c r="F111" s="64">
         <f>G111/E111*100</f>
         <v>0</v>
       </c>
@@ -8102,63 +8273,63 @@
         <v>0</v>
       </c>
       <c r="H111" s="44">
-        <f t="shared" ref="H111:S111" si="39">SUBTOTAL(9,H9:H109)</f>
+        <f t="shared" ref="H111:S111" si="34">SUBTOTAL(9,H9:H109)</f>
         <v>0</v>
       </c>
       <c r="I111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S111" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="168"/>
+      <c r="A112" s="167"/>
       <c r="B112" s="165"/>
       <c r="C112" s="165"/>
       <c r="D112" s="165"/>
       <c r="E112" s="165"/>
       <c r="F112" s="165"/>
       <c r="G112" s="165"/>
-      <c r="H112" s="170"/>
+      <c r="H112" s="166"/>
       <c r="I112" s="156"/>
       <c r="J112" s="156"/>
       <c r="K112" s="156"/>
@@ -8172,15 +8343,15 @@
       <c r="S112" s="156"/>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="168" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" s="169"/>
-      <c r="C113" s="169"/>
-      <c r="D113" s="169"/>
-      <c r="E113" s="169"/>
-      <c r="F113" s="169"/>
-      <c r="G113" s="169"/>
+      <c r="A113" s="167" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="168"/>
+      <c r="C113" s="168"/>
+      <c r="D113" s="168"/>
+      <c r="E113" s="168"/>
+      <c r="F113" s="168"/>
+      <c r="G113" s="168"/>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
       <c r="J113" s="47"/>
@@ -8196,63 +8367,63 @@
     </row>
     <row r="114" spans="1:19" ht="14.5">
       <c r="A114" s="39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C114" s="75">
+        <v>253</v>
+      </c>
+      <c r="C114" s="72">
         <v>5000</v>
       </c>
-      <c r="D114" s="75">
-        <v>2044.29</v>
-      </c>
-      <c r="E114" s="75">
-        <v>5000</v>
-      </c>
-      <c r="F114" s="63">
-        <f t="shared" ref="F114:F116" si="40">G114/E114*100</f>
+      <c r="D114" s="72">
+        <v>3690</v>
+      </c>
+      <c r="E114" s="72">
+        <v>4000</v>
+      </c>
+      <c r="F114" s="59">
+        <f t="shared" ref="F114:F121" si="35">IF(E114=0, 0, G114/E114*100)</f>
         <v>0</v>
       </c>
       <c r="G114" s="28">
-        <f t="shared" ref="G114:G120" si="41">SUM(H114:S114)</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="47"/>
+        <f t="shared" ref="G114:G120" si="36">SUM(H114:S114)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="71"/>
       <c r="I114" s="47"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="74"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
       <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
-      <c r="N114" s="47"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
       <c r="O114" s="47"/>
       <c r="P114" s="47"/>
       <c r="Q114" s="47"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
+      <c r="R114" s="71"/>
+      <c r="S114" s="71"/>
     </row>
     <row r="115" spans="1:19" ht="14.5">
       <c r="A115" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="75">
+        <v>218</v>
+      </c>
+      <c r="C115" s="72">
         <v>3000</v>
       </c>
-      <c r="D115" s="75">
+      <c r="D115" s="72">
+        <v>0</v>
+      </c>
+      <c r="E115" s="72">
         <v>3000</v>
       </c>
-      <c r="E115" s="75">
-        <v>3000</v>
-      </c>
-      <c r="F115" s="63">
-        <f t="shared" si="40"/>
+      <c r="F115" s="59">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G115" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H115" s="47"/>
@@ -8266,128 +8437,141 @@
       <c r="P115" s="47"/>
       <c r="Q115" s="47"/>
       <c r="R115" s="47"/>
-      <c r="S115" s="74"/>
+      <c r="S115" s="71"/>
     </row>
     <row r="116" spans="1:19" ht="14.5">
       <c r="A116" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C116" s="75">
-        <v>4000</v>
-      </c>
-      <c r="D116" s="75">
-        <v>4186.18</v>
-      </c>
-      <c r="E116" s="75">
+        <v>155</v>
+      </c>
+      <c r="C116" s="72">
         <v>3500</v>
       </c>
-      <c r="F116" s="63">
-        <f t="shared" si="40"/>
+      <c r="D116" s="72">
+        <v>1616.75</v>
+      </c>
+      <c r="E116" s="72">
+        <v>2500</v>
+      </c>
+      <c r="F116" s="59">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G116" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H116" s="47"/>
-      <c r="I116" s="74"/>
+      <c r="I116" s="71"/>
       <c r="J116" s="47"/>
       <c r="K116" s="47"/>
       <c r="L116" s="47"/>
       <c r="M116" s="47"/>
       <c r="N116" s="47"/>
-      <c r="O116" s="74"/>
+      <c r="O116" s="71"/>
       <c r="P116" s="47"/>
-      <c r="Q116" s="74"/>
+      <c r="Q116" s="71"/>
       <c r="R116" s="47"/>
-      <c r="S116" s="74"/>
-    </row>
-    <row r="117" spans="1:19" s="76" customFormat="1" ht="14.5">
-      <c r="A117" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B117" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" s="75">
-        <v>21000</v>
-      </c>
-      <c r="D117" s="75">
-        <v>16466.400000000001</v>
-      </c>
-      <c r="E117" s="75">
+      <c r="S116" s="71"/>
+    </row>
+    <row r="117" spans="1:19" s="73" customFormat="1" ht="14.5">
+      <c r="A117" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="72">
         <v>26600</v>
       </c>
-      <c r="F117" s="75"/>
+      <c r="D117" s="72">
+        <v>4533.6000000000004</v>
+      </c>
+      <c r="E117" s="72">
+        <v>0</v>
+      </c>
+      <c r="F117" s="59">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="G117" s="28">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="80"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="80"/>
-      <c r="K117" s="80"/>
-      <c r="L117" s="80"/>
-      <c r="M117" s="80"/>
-      <c r="N117" s="80"/>
-      <c r="O117" s="74"/>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="74"/>
-      <c r="R117" s="80"/>
-      <c r="S117" s="74"/>
-    </row>
-    <row r="118" spans="1:19" s="76" customFormat="1" ht="14.5">
-      <c r="A118" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="B118" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="C118" s="75">
-        <v>5000</v>
-      </c>
-      <c r="D118" s="75">
-        <v>1619</v>
-      </c>
-      <c r="E118" s="75">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="71"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="71"/>
+      <c r="R117" s="77"/>
+      <c r="S117" s="71"/>
+    </row>
+    <row r="118" spans="1:19" s="73" customFormat="1" ht="14.5">
+      <c r="A118" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="72">
         <v>26400</v>
       </c>
-      <c r="F118" s="75"/>
+      <c r="D118" s="72">
+        <v>14221.130000000001</v>
+      </c>
+      <c r="E118" s="72">
+        <v>2226.13</v>
+      </c>
+      <c r="F118" s="59">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="G118" s="28">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="80"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="80"/>
-      <c r="L118" s="80"/>
-      <c r="M118" s="80"/>
-      <c r="N118" s="80"/>
-      <c r="O118" s="74"/>
-      <c r="P118" s="80"/>
-      <c r="Q118" s="74"/>
-      <c r="R118" s="80"/>
-      <c r="S118" s="74"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="77"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="71"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="77"/>
+      <c r="S118" s="71"/>
     </row>
     <row r="119" spans="1:19" ht="14.5">
       <c r="A119" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75">
+        <v>246</v>
+      </c>
+      <c r="C119" s="72">
+        <v>0</v>
+      </c>
+      <c r="D119" s="72">
+        <v>0</v>
+      </c>
+      <c r="E119" s="72">
         <v>500</v>
       </c>
-      <c r="E119" s="75"/>
-      <c r="F119" s="27"/>
+      <c r="F119" s="59">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="G119" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H119" s="47"/>
@@ -8405,62 +8589,62 @@
     </row>
     <row r="120" spans="1:19" ht="14.5">
       <c r="A120" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" s="75">
+        <v>158</v>
+      </c>
+      <c r="C120" s="72">
         <v>1500</v>
       </c>
-      <c r="D120" s="75">
-        <v>225</v>
-      </c>
-      <c r="E120" s="75">
+      <c r="D120" s="72">
         <v>1500</v>
       </c>
-      <c r="F120" s="63">
-        <f t="shared" ref="F120:F121" si="42">G120/E120*100</f>
+      <c r="E120" s="72">
+        <v>1000</v>
+      </c>
+      <c r="F120" s="59">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G120" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
-      <c r="N120" s="74"/>
-      <c r="O120" s="74"/>
-      <c r="P120" s="74"/>
-      <c r="Q120" s="74"/>
-      <c r="R120" s="74"/>
-      <c r="S120" s="74"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="71"/>
+      <c r="N120" s="71"/>
+      <c r="O120" s="71"/>
+      <c r="P120" s="71"/>
+      <c r="Q120" s="71"/>
+      <c r="R120" s="71"/>
+      <c r="S120" s="71"/>
     </row>
     <row r="121" spans="1:19" ht="14.5">
       <c r="A121" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C121" s="27">
         <f>SUBTOTAL(9,C114:C120)</f>
-        <v>39500</v>
+        <v>66000</v>
       </c>
       <c r="D121" s="27">
         <f>SUBTOTAL(9,D114:D120)</f>
-        <v>28040.870000000003</v>
+        <v>25561.480000000003</v>
       </c>
       <c r="E121" s="27">
         <f>SUBTOTAL(9,E114:E120)</f>
-        <v>66000</v>
-      </c>
-      <c r="F121" s="63">
-        <f t="shared" si="42"/>
+        <v>13226.130000000001</v>
+      </c>
+      <c r="F121" s="59">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G121" s="27">
@@ -8468,63 +8652,63 @@
         <v>0</v>
       </c>
       <c r="H121" s="27">
-        <f t="shared" ref="H121:S121" si="43">SUBTOTAL(9,H114:H120)</f>
+        <f t="shared" ref="H121:S121" si="37">SUBTOTAL(9,H114:H120)</f>
         <v>0</v>
       </c>
       <c r="I121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S121" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="168"/>
+      <c r="A122" s="167"/>
       <c r="B122" s="165"/>
       <c r="C122" s="165"/>
       <c r="D122" s="165"/>
       <c r="E122" s="165"/>
       <c r="F122" s="165"/>
       <c r="G122" s="165"/>
-      <c r="H122" s="170"/>
+      <c r="H122" s="166"/>
       <c r="I122" s="156"/>
       <c r="J122" s="156"/>
       <c r="K122" s="156"/>
@@ -8540,21 +8724,21 @@
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="43"/>
       <c r="B123" s="43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C123" s="44">
         <f>SUBTOTAL(9,C114:C121)</f>
-        <v>39500</v>
+        <v>66000</v>
       </c>
       <c r="D123" s="44">
         <f>SUBTOTAL(9,D114:D121)</f>
-        <v>28040.870000000003</v>
+        <v>25561.480000000003</v>
       </c>
       <c r="E123" s="44">
         <f>SUBTOTAL(9,E114:E121)</f>
-        <v>66000</v>
-      </c>
-      <c r="F123" s="65">
+        <v>13226.130000000001</v>
+      </c>
+      <c r="F123" s="64">
         <f>G123/E123*100</f>
         <v>0</v>
       </c>
@@ -8563,63 +8747,63 @@
         <v>0</v>
       </c>
       <c r="H123" s="44">
-        <f t="shared" ref="H123:S123" si="44">SUBTOTAL(9,H114:H121)</f>
+        <f t="shared" ref="H123:S123" si="38">SUBTOTAL(9,H114:H121)</f>
         <v>0</v>
       </c>
       <c r="I123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S123" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="168"/>
+      <c r="A124" s="167"/>
       <c r="B124" s="165"/>
       <c r="C124" s="165"/>
       <c r="D124" s="165"/>
       <c r="E124" s="165"/>
       <c r="F124" s="165"/>
       <c r="G124" s="165"/>
-      <c r="H124" s="170"/>
+      <c r="H124" s="166"/>
       <c r="I124" s="156"/>
       <c r="J124" s="156"/>
       <c r="K124" s="156"/>
@@ -8635,21 +8819,21 @@
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="45"/>
       <c r="B125" s="45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C125" s="46">
         <f>SUBTOTAL(9,C9:C123)</f>
-        <v>248117.44</v>
+        <v>242045.26</v>
       </c>
       <c r="D125" s="46">
         <f>SUBTOTAL(9,D9:D123)</f>
-        <v>163426.68000000002</v>
+        <v>145991.89000000001</v>
       </c>
       <c r="E125" s="46">
         <f>SUBTOTAL(9,E9:E123)</f>
-        <v>242045.26</v>
-      </c>
-      <c r="F125" s="64">
+        <v>193576.49</v>
+      </c>
+      <c r="F125" s="63">
         <f>G125/E125*100</f>
         <v>0</v>
       </c>
@@ -8658,51 +8842,51 @@
         <v>0</v>
       </c>
       <c r="H125" s="46">
-        <f t="shared" ref="H125:S125" si="45">SUBTOTAL(9,H9:H123)</f>
+        <f t="shared" ref="H125:S125" si="39">SUBTOTAL(9,H9:H123)</f>
         <v>0</v>
       </c>
       <c r="I125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S125" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -8712,9 +8896,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="F126" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G126" s="74"/>
+        <v>220</v>
+      </c>
+      <c r="G126" s="71"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="2"/>
@@ -8823,6 +9007,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="H58:S58"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:S94"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="H106:S106"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8833,29 +9040,6 @@
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:S94"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H58:S58"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8864,10 +9048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC06A08A-6CE1-40F5-B6A3-44424F0D131E}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8887,7 +9071,7 @@
     </row>
     <row r="2" spans="1:4" ht="18.5">
       <c r="A2" s="172" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B2" s="172"/>
       <c r="C2" s="172"/>
@@ -8901,180 +9085,195 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B4" t="str">
         <f>Summary!$A$22</f>
         <v>Contribution Total</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="66">
         <f>Summary!$E$22</f>
         <v>0</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="str">
         <f>Summary!$B$24</f>
         <v>Korean Language Grant</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="66">
         <f>Summary!$E$24</f>
         <v>0</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="66"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="str">
         <f>Summary!$B$25</f>
         <v>Refugee Programme</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="66">
         <f>Summary!$E$25</f>
         <v>0</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="66"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="str">
         <f>Summary!$B$26</f>
         <v>Ont Senior Community Grant</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="66">
         <f>Summary!$E$26</f>
         <v>0</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="str">
         <f>Summary!$B$27</f>
         <v>Embracing the Spirit Growth Grants</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="66">
         <f>Summary!$E$27</f>
         <v>0</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="str">
-        <f>Summary!$B$28</f>
+        <f>Summary!$B$29</f>
         <v xml:space="preserve">Designated fund </v>
       </c>
-      <c r="C9" s="69">
-        <f>Summary!$E$28</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="66">
+        <f>Summary!$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="66"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="66"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B11" t="str">
-        <f>Summary!$G$34</f>
+        <f>Summary!$G$35</f>
         <v>Expenditure Total</v>
       </c>
-      <c r="C11" s="70">
-        <f>Summary!$K$34</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="69"/>
+      <c r="C11" s="67">
+        <f>Summary!$K$35</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="66"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69">
+        <v>225</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66">
         <f>SUM(C4:C9)-C11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B14" t="str">
-        <f>Summary!$B$33</f>
+        <f>Summary!$B$34</f>
         <v>Trustee Fund Transfers</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70">
-        <f>Summary!$E$33</f>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67">
+        <f>Summary!$E$34</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69">
+        <v>226</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66">
         <f>D12+D14</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B18" t="str">
-        <f>Summary!$B$32</f>
+        <f>Summary!$B$33</f>
         <v>Beginning Balance</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69">
-        <f>Summary!$C$32</f>
-        <v>63945.25999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66">
+        <f>Summary!$C$33</f>
+        <v>60676.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
+        <v>223</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="71">
+        <v>187.17000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="B22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="71">
+        <v>224</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="68">
         <f>D15+D18+D19</f>
-        <v>63945.25999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickTop="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="81"/>
+        <v>60863.659999999996</v>
+      </c>
+      <c r="E22" s="120"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickTop="1">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="78"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="3">
